--- a/Community 테이블 명세 양식.xlsx
+++ b/Community 테이블 명세 양식.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\MySQL\참고자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\Community_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="105">
   <si>
     <t>테이블 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -434,6 +434,18 @@
   </si>
   <si>
     <t>cmt_recommend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -845,6 +857,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -874,9 +889,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2274,61 +2286,83 @@
       <c r="L13" s="6"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="14"/>
-      <c r="C14" s="16" t="s">
+    <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9"/>
+      <c r="C14" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16" t="s">
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="17"/>
-      <c r="O14" s="28" t="s">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="11"/>
+      <c r="O14" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="31"/>
     </row>
-    <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O15" s="21" t="s">
+    <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="14"/>
+      <c r="C15" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="O15" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="24"/>
     </row>
     <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O16" s="24"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="23"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="24"/>
     </row>
     <row r="17" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O17" s="25"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="27"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="28"/>
     </row>
     <row r="18" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O18" s="20"/>
@@ -3449,11 +3483,11 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="11"/>
     </row>
     <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3469,36 +3503,36 @@
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="17"/>
-      <c r="O14" s="28" t="s">
+      <c r="O14" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="31"/>
     </row>
     <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O15" s="21" t="s">
+      <c r="O15" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="24"/>
     </row>
     <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O16" s="24"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="23"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="24"/>
     </row>
     <row r="17" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O17" s="25"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="27"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Community 테이블 명세 양식.xlsx
+++ b/Community 테이블 명세 양식.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\Community_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\MySQL\참고자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="102">
   <si>
     <t>테이블 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -434,18 +434,6 @@
   </si>
   <si>
     <t>cmt_recommend</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -857,9 +845,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -889,6 +874,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2286,83 +2274,61 @@
       <c r="L13" s="6"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="9"/>
-      <c r="C14" s="6" t="s">
+    <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="14"/>
+      <c r="C14" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6" t="s">
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="11"/>
-      <c r="O14" s="29" t="s">
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="17"/>
+      <c r="O14" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="31"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="30"/>
     </row>
-    <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="14"/>
-      <c r="C15" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="O15" s="22" t="s">
+    <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O15" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="24"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="23"/>
     </row>
     <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O16" s="25"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="23"/>
     </row>
     <row r="17" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O17" s="26"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="28"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="27"/>
     </row>
     <row r="18" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O18" s="20"/>
@@ -3483,11 +3449,11 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
       <c r="M13" s="11"/>
     </row>
     <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3503,36 +3469,36 @@
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="17"/>
-      <c r="O14" s="29" t="s">
+      <c r="O14" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="31"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="30"/>
     </row>
     <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O15" s="22" t="s">
+      <c r="O15" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="24"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="23"/>
     </row>
     <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O16" s="25"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="23"/>
     </row>
     <row r="17" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O17" s="26"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="28"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Community 테이블 명세 양식.xlsx
+++ b/Community 테이블 명세 양식.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\MySQL\참고자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\505-14\Desktop\project\CommunityWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="113">
   <si>
     <t>테이블 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR(1000)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -167,50 +163,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>첨부파일 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_writer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_subject</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>숫자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>첨부파일 ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_writer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_subject</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>board_delete</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(256)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TINYINT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -272,10 +260,6 @@
   </si>
   <si>
     <t>문자열(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -434,6 +418,66 @@
   </si>
   <si>
     <t>cmt_recommend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(1000)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(256)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(256)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +535,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -775,13 +819,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -845,6 +919,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -875,7 +952,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1161,7 +1241,7 @@
   <dimension ref="B1:S19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1853,7 +1933,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>7</v>
@@ -1868,16 +1948,16 @@
         <v>24</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1885,20 +1965,20 @@
         <v>10</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18" t="s">
@@ -1908,10 +1988,10 @@
       <c r="L3" s="18"/>
       <c r="M3" s="19"/>
       <c r="O3" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q3" s="15">
         <v>1</v>
@@ -1925,16 +2005,16 @@
     </row>
     <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>23</v>
@@ -1945,15 +2025,15 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="15">
@@ -1969,16 +2049,16 @@
     <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>28</v>
@@ -1991,7 +2071,7 @@
       <c r="M5" s="11"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="15">
         <v>2</v>
@@ -2006,16 +2086,16 @@
     <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>28</v>
@@ -2044,13 +2124,13 @@
         <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -2061,7 +2141,7 @@
       <c r="M7" s="12"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="15">
         <v>3</v>
@@ -2082,10 +2162,10 @@
         <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2115,10 +2195,10 @@
         <v>21</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>28</v>
@@ -2131,7 +2211,7 @@
       <c r="M9" s="12"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="15">
         <v>4</v>
@@ -2152,10 +2232,10 @@
         <v>22</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>28</v>
@@ -2187,23 +2267,23 @@
         <v>18</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="12"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="15">
         <v>5</v>
@@ -2218,16 +2298,16 @@
     <row r="12" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
@@ -2251,84 +2331,104 @@
     <row r="13" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="14"/>
-      <c r="C14" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="16" t="s">
+    <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9"/>
+      <c r="C14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="16" t="s">
+      <c r="E14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="17"/>
-      <c r="O14" s="28" t="s">
+      <c r="G14" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="30"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="11"/>
+      <c r="O14" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="31"/>
     </row>
-    <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O15" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="23"/>
+    <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="14"/>
+      <c r="C15" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="33"/>
+      <c r="O15" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="24"/>
     </row>
     <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O16" s="24"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="23"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="24"/>
     </row>
     <row r="17" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O17" s="25"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="27"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="28"/>
     </row>
     <row r="18" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O18" s="20"/>
@@ -3053,7 +3153,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>7</v>
@@ -3068,30 +3168,30 @@
         <v>24</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>23</v>
@@ -3105,13 +3205,13 @@
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="15">
         <v>1</v>
@@ -3125,23 +3225,23 @@
     </row>
     <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
@@ -3151,7 +3251,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="11"/>
       <c r="O4" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="15">
@@ -3167,16 +3267,16 @@
     <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>28</v>
@@ -3189,7 +3289,7 @@
       <c r="M5" s="11"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="15">
         <v>2</v>
@@ -3204,13 +3304,13 @@
     <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>29</v>
@@ -3239,16 +3339,16 @@
     <row r="7" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -3259,7 +3359,7 @@
       <c r="M7" s="12"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="15">
         <v>3</v>
@@ -3274,13 +3374,13 @@
     <row r="8" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>26</v>
@@ -3307,16 +3407,16 @@
     <row r="9" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>28</v>
@@ -3344,24 +3444,24 @@
     <row r="10" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -3381,13 +3481,13 @@
     <row r="11" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>23</v>
@@ -3398,7 +3498,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -3449,11 +3549,11 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="11"/>
     </row>
     <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3469,36 +3569,36 @@
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="17"/>
-      <c r="O14" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="30"/>
+      <c r="O14" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="31"/>
     </row>
     <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O15" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="23"/>
+      <c r="O15" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="24"/>
     </row>
     <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O16" s="24"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="23"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="24"/>
     </row>
     <row r="17" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O17" s="25"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="27"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Community 테이블 명세 양식.xlsx
+++ b/Community 테이블 명세 양식.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\505-14\Desktop\project\CommunityWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\Community_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -922,6 +922,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -951,12 +957,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1241,7 +1241,7 @@
   <dimension ref="B1:S19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2379,56 +2379,56 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="11"/>
-      <c r="O14" s="29" t="s">
+      <c r="O14" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="31"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="33"/>
     </row>
     <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="14"/>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="33"/>
-      <c r="O15" s="22" t="s">
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="23"/>
+      <c r="O15" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="24"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="26"/>
     </row>
     <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O16" s="25"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="24"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="26"/>
     </row>
     <row r="17" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O17" s="26"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="30"/>
     </row>
     <row r="18" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O18" s="20"/>
@@ -3569,36 +3569,36 @@
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="17"/>
-      <c r="O14" s="29" t="s">
+      <c r="O14" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="31"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="33"/>
     </row>
     <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O15" s="22" t="s">
+      <c r="O15" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="24"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="26"/>
     </row>
     <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O16" s="25"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="24"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="26"/>
     </row>
     <row r="17" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O17" s="26"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Community 테이블 명세 양식.xlsx
+++ b/Community 테이블 명세 양식.xlsx
@@ -1240,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Community 테이블 명세 양식.xlsx
+++ b/Community 테이블 명세 양식.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="114">
   <si>
     <t>테이블 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>조회수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>숫자(자동부여)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -192,10 +188,6 @@
   </si>
   <si>
     <t>숫자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_delete</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -478,6 +470,21 @@
   </si>
   <si>
     <t>VARCHAR(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_delete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE 자식테이블
+ADD CONSTRAINT 제약조건(외래키)이름
+FOREIGN KEY (자식칼럼)
+REFERENCES 부모테이블(부모칼럼)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1240,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15:S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1933,7 +1940,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>7</v>
@@ -1945,19 +1952,19 @@
         <v>9</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1965,33 +1972,33 @@
         <v>10</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="19"/>
       <c r="O3" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="15">
         <v>1</v>
@@ -2005,35 +2012,35 @@
     </row>
     <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="15">
@@ -2049,19 +2056,19 @@
     <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -2071,7 +2078,7 @@
       <c r="M5" s="11"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="15">
         <v>2</v>
@@ -2086,19 +2093,19 @@
     <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -2124,13 +2131,13 @@
         <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -2141,7 +2148,7 @@
       <c r="M7" s="12"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="15">
         <v>3</v>
@@ -2159,13 +2166,13 @@
         <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2192,16 +2199,16 @@
         <v>14</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -2211,7 +2218,7 @@
       <c r="M9" s="12"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="15">
         <v>4</v>
@@ -2229,16 +2236,16 @@
         <v>15</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -2261,29 +2268,29 @@
     <row r="11" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="7" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="12"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="15">
         <v>5</v>
@@ -2298,16 +2305,16 @@
     <row r="12" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
@@ -2331,24 +2338,24 @@
     <row r="13" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -2357,30 +2364,30 @@
     <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9"/>
       <c r="C14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="11"/>
       <c r="O14" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P14" s="32"/>
       <c r="Q14" s="32"/>
@@ -2390,16 +2397,16 @@
     <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="14"/>
       <c r="C15" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D15" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>112</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -2409,7 +2416,7 @@
       <c r="L15" s="22"/>
       <c r="M15" s="23"/>
       <c r="O15" s="24" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
@@ -3153,7 +3160,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>7</v>
@@ -3165,39 +3172,39 @@
         <v>9</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -3205,13 +3212,13 @@
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="15">
         <v>1</v>
@@ -3225,33 +3232,33 @@
     </row>
     <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="11"/>
       <c r="O4" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="15">
@@ -3267,19 +3274,19 @@
     <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -3289,7 +3296,7 @@
       <c r="M5" s="11"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="15">
         <v>2</v>
@@ -3304,19 +3311,19 @@
     <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -3339,16 +3346,16 @@
     <row r="7" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -3359,7 +3366,7 @@
       <c r="M7" s="12"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="15">
         <v>3</v>
@@ -3374,16 +3381,16 @@
     <row r="8" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -3407,19 +3414,19 @@
     <row r="9" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -3429,7 +3436,7 @@
       <c r="M9" s="12"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="15">
         <v>4</v>
@@ -3444,24 +3451,24 @@
     <row r="10" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -3481,31 +3488,31 @@
     <row r="11" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="12"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="15">
         <v>5</v>
@@ -3570,7 +3577,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="17"/>
       <c r="O14" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P14" s="32"/>
       <c r="Q14" s="32"/>
@@ -3579,7 +3586,7 @@
     </row>
     <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O15" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>

--- a/Community 테이블 명세 양식.xlsx
+++ b/Community 테이블 명세 양식.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="게시판 테이블 명세서" sheetId="1" r:id="rId1"/>
@@ -1247,7 +1247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O15" sqref="O15:S17"/>
     </sheetView>
   </sheetViews>
@@ -2467,7 +2467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/Community 테이블 명세 양식.xlsx
+++ b/Community 테이블 명세 양식.xlsx
@@ -5,15 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\Community_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\community_workspace\CommunityWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="게시판 테이블 명세서" sheetId="1" r:id="rId1"/>
-    <sheet name="댓글 테이블 명세서" sheetId="5" r:id="rId2"/>
+    <sheet name="유저 테이블 명세서" sheetId="7" r:id="rId1"/>
+    <sheet name="유저권한 테이블 명세서" sheetId="9" r:id="rId2"/>
+    <sheet name="게시판 정보 테이블 명세서" sheetId="1" r:id="rId3"/>
+    <sheet name="카테고리 테이블 명세서" sheetId="6" r:id="rId4"/>
+    <sheet name="게시글 테이블 명세서" sheetId="10" r:id="rId5"/>
+    <sheet name="댓글 테이블 명세서" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="194">
   <si>
     <t>테이블 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -187,154 +191,134 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bytes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEDIUMINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unsigned</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_board</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_p_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT 0</t>
+  </si>
+  <si>
+    <t>작성자 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원글 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글 구현하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_filename</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmt_p_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원댓글 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmt_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>숫자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TINYINT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bytes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TINYINT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMALLINT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEDIUMINT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Signed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unsigned</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_board</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_p_no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT 0</t>
-  </si>
-  <si>
-    <t>작성자 ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원글 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>답글 구현하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>옵션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT 0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_filename</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmt_p_no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원댓글 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmt_no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글의 원글</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmt_board_no</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -357,42 +341,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>cmt_writer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성자 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성시각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 삭제여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>NOT NULL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cmt_writer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 작성자 ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 작성일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 작성시각</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 삭제여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>cmt_date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -413,46 +393,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR(125)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(1000)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR(256)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TINYINT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>날짜형</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -461,15 +409,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>문자열(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>board_category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -485,6 +425,355 @@
 ADD CONSTRAINT 제약조건(외래키)이름
 FOREIGN KEY (자식칼럼)
 REFERENCES 부모테이블(부모칼럼)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>카테고리 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cate_text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cate_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_users</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorities</t>
+  </si>
+  <si>
+    <t>유저 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>accountNonExpired</t>
+  </si>
+  <si>
+    <t>accountNonLocked</t>
+  </si>
+  <si>
+    <t>credentialsNonExpired</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT true</t>
+  </si>
+  <si>
+    <t>VARCHAR(125)</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 아이디</t>
+  </si>
+  <si>
+    <t>유저 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 활성화 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 만료 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 잠금 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 만료 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(50)</t>
+  </si>
+  <si>
+    <t>문자열(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>논리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저권한 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>숫자</t>
+  </si>
+  <si>
+    <t>FK_USERS_AUTH_username</t>
+  </si>
+  <si>
+    <t>tbl_users</t>
+  </si>
+  <si>
+    <t>(username)</t>
+  </si>
+  <si>
+    <t>ON DELETE CASCADE</t>
+  </si>
+  <si>
+    <t>FK_USERS_BOARD_board_writer</t>
+  </si>
+  <si>
+    <t>FK_BOARD_COMMENT_board_no</t>
+  </si>
+  <si>
+    <t>tbl_board</t>
+  </si>
+  <si>
+    <t>댓글의 원글</t>
+  </si>
+  <si>
+    <t>(board_no)</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_board_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cate_bi_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_board_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK_BI_CATEGORY_bi_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 정보 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 정보 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK_CATEGORY_BOARD_board_category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK_BI_BOARD_board_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원글 번호</t>
+  </si>
+  <si>
+    <t>cmt_board_no</t>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON DELETE CASCADE
+게시판 별 카테고리 목록 설정하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEFT JOIN으로 게시판 이름 가져오기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUI JOIN으로 유저 아이디 가져오기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULT MAP으로 카테고리 목록 가져오기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_board_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(bi_id)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(cate_id)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +784,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -516,6 +805,13 @@
       <charset val="129"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <name val="돋움"/>
       <family val="3"/>
@@ -862,7 +1158,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -964,6 +1260,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1245,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S19"/>
+  <dimension ref="B1:S17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15:S17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1257,11 +1559,12 @@
     <col min="2" max="2" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
@@ -1937,10 +2240,10 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>7</v>
@@ -1955,50 +2258,48 @@
         <v>23</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
-        <v>26</v>
-      </c>
+      <c r="J3" s="18"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="19"/>
       <c r="O3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="15">
         <v>1</v>
@@ -2012,35 +2313,29 @@
     </row>
     <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="M4" s="11"/>
       <c r="O4" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="15">
@@ -2056,29 +2351,29 @@
     <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="11"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="15">
         <v>2</v>
@@ -2093,22 +2388,22 @@
     <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -2128,27 +2423,29 @@
     <row r="7" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="12"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="15">
         <v>3</v>
@@ -2163,20 +2460,22 @@
     <row r="8" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="7" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -2196,16 +2495,16 @@
     <row r="9" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>27</v>
@@ -2218,7 +2517,7 @@
       <c r="M9" s="12"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="15">
         <v>4</v>
@@ -2232,26 +2531,24 @@
     </row>
     <row r="10" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
-      <c r="C10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="C10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
       <c r="M10" s="12"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -2268,29 +2565,27 @@
     <row r="11" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="7" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="12"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="15">
         <v>5</v>
@@ -2305,23 +2600,23 @@
     <row r="12" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="7" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
       <c r="M12" s="13"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -2337,86 +2632,42 @@
     </row>
     <row r="13" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
-      <c r="C13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="9"/>
-      <c r="C14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="11"/>
+    <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="14"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="17"/>
       <c r="O14" s="31" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="P14" s="32"/>
       <c r="Q14" s="32"/>
       <c r="R14" s="32"/>
       <c r="S14" s="33"/>
     </row>
-    <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="14"/>
-      <c r="C15" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="23"/>
+    <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O15" s="24" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
@@ -2437,24 +2688,10 @@
       <c r="R17" s="29"/>
       <c r="S17" s="30"/>
     </row>
-    <row r="18" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-    </row>
-    <row r="19" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="O14:S14"/>
     <mergeCell ref="O15:S17"/>
-    <mergeCell ref="O14:S14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2467,24 +2704,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="10.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.77734375" style="4" bestFit="1" customWidth="1"/>
@@ -3157,10 +3395,10 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>7</v>
@@ -3175,50 +3413,50 @@
         <v>23</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+        <v>152</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
-      <c r="M3" s="19" t="s">
-        <v>75</v>
-      </c>
+      <c r="M3" s="19"/>
       <c r="O3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="15">
         <v>1</v>
@@ -3232,33 +3470,39 @@
     </row>
     <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="11"/>
+        <v>155</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="O4" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="15">
@@ -3274,29 +3518,27 @@
     <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="11"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="15">
         <v>2</v>
@@ -3310,21 +3552,11 @@
     </row>
     <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
-      <c r="C6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -3345,18 +3577,10 @@
     </row>
     <row r="7" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
-      <c r="C7" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -3366,7 +3590,7 @@
       <c r="M7" s="12"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="15">
         <v>3</v>
@@ -3380,18 +3604,10 @@
     </row>
     <row r="8" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
-      <c r="C8" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -3413,21 +3629,11 @@
     </row>
     <row r="9" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
-      <c r="C9" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -3450,26 +3656,14 @@
     </row>
     <row r="10" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
-      <c r="C10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="12"/>
@@ -3487,26 +3681,14 @@
     </row>
     <row r="11" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
-      <c r="C11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="12"/>
@@ -3577,7 +3759,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="17"/>
       <c r="O14" s="31" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="P14" s="32"/>
       <c r="Q14" s="32"/>
@@ -3586,7 +3768,4624 @@
     </row>
     <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O15" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="26"/>
+    </row>
+    <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O16" s="27"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="26"/>
+    </row>
+    <row r="17" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O17" s="28"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="O15:S17"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:S19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="258" width="8.88671875" style="4"/>
+    <col min="259" max="259" width="1.33203125" style="4" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.88671875" style="4"/>
+    <col min="515" max="515" width="1.33203125" style="4" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.88671875" style="4"/>
+    <col min="771" max="771" width="1.33203125" style="4" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.88671875" style="4"/>
+    <col min="1027" max="1027" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.88671875" style="4"/>
+    <col min="1283" max="1283" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.88671875" style="4"/>
+    <col min="1539" max="1539" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.88671875" style="4"/>
+    <col min="1795" max="1795" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.88671875" style="4"/>
+    <col min="2051" max="2051" width="1.33203125" style="4" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.88671875" style="4"/>
+    <col min="2307" max="2307" width="1.33203125" style="4" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.88671875" style="4"/>
+    <col min="2563" max="2563" width="1.33203125" style="4" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.88671875" style="4"/>
+    <col min="2819" max="2819" width="1.33203125" style="4" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.88671875" style="4"/>
+    <col min="3075" max="3075" width="1.33203125" style="4" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.88671875" style="4"/>
+    <col min="3331" max="3331" width="1.33203125" style="4" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.88671875" style="4"/>
+    <col min="3587" max="3587" width="1.33203125" style="4" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.88671875" style="4"/>
+    <col min="3843" max="3843" width="1.33203125" style="4" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.88671875" style="4"/>
+    <col min="4099" max="4099" width="1.33203125" style="4" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.88671875" style="4"/>
+    <col min="4355" max="4355" width="1.33203125" style="4" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.88671875" style="4"/>
+    <col min="4611" max="4611" width="1.33203125" style="4" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.88671875" style="4"/>
+    <col min="4867" max="4867" width="1.33203125" style="4" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.88671875" style="4"/>
+    <col min="5123" max="5123" width="1.33203125" style="4" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.88671875" style="4"/>
+    <col min="5379" max="5379" width="1.33203125" style="4" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.88671875" style="4"/>
+    <col min="5635" max="5635" width="1.33203125" style="4" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.88671875" style="4"/>
+    <col min="5891" max="5891" width="1.33203125" style="4" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.88671875" style="4"/>
+    <col min="6147" max="6147" width="1.33203125" style="4" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.88671875" style="4"/>
+    <col min="6403" max="6403" width="1.33203125" style="4" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.88671875" style="4"/>
+    <col min="6659" max="6659" width="1.33203125" style="4" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.88671875" style="4"/>
+    <col min="6915" max="6915" width="1.33203125" style="4" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.88671875" style="4"/>
+    <col min="7171" max="7171" width="1.33203125" style="4" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.88671875" style="4"/>
+    <col min="7427" max="7427" width="1.33203125" style="4" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.88671875" style="4"/>
+    <col min="7683" max="7683" width="1.33203125" style="4" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.88671875" style="4"/>
+    <col min="7939" max="7939" width="1.33203125" style="4" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.88671875" style="4"/>
+    <col min="8195" max="8195" width="1.33203125" style="4" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.88671875" style="4"/>
+    <col min="8451" max="8451" width="1.33203125" style="4" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.88671875" style="4"/>
+    <col min="8707" max="8707" width="1.33203125" style="4" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.88671875" style="4"/>
+    <col min="8963" max="8963" width="1.33203125" style="4" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.88671875" style="4"/>
+    <col min="9219" max="9219" width="1.33203125" style="4" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.88671875" style="4"/>
+    <col min="9475" max="9475" width="1.33203125" style="4" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.88671875" style="4"/>
+    <col min="9731" max="9731" width="1.33203125" style="4" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.88671875" style="4"/>
+    <col min="9987" max="9987" width="1.33203125" style="4" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.88671875" style="4"/>
+    <col min="10243" max="10243" width="1.33203125" style="4" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.88671875" style="4"/>
+    <col min="10499" max="10499" width="1.33203125" style="4" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.88671875" style="4"/>
+    <col min="10755" max="10755" width="1.33203125" style="4" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.88671875" style="4"/>
+    <col min="11011" max="11011" width="1.33203125" style="4" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.88671875" style="4"/>
+    <col min="11267" max="11267" width="1.33203125" style="4" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.88671875" style="4"/>
+    <col min="11523" max="11523" width="1.33203125" style="4" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.88671875" style="4"/>
+    <col min="11779" max="11779" width="1.33203125" style="4" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.88671875" style="4"/>
+    <col min="12035" max="12035" width="1.33203125" style="4" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.88671875" style="4"/>
+    <col min="12291" max="12291" width="1.33203125" style="4" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.88671875" style="4"/>
+    <col min="12547" max="12547" width="1.33203125" style="4" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.88671875" style="4"/>
+    <col min="12803" max="12803" width="1.33203125" style="4" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.88671875" style="4"/>
+    <col min="13059" max="13059" width="1.33203125" style="4" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.88671875" style="4"/>
+    <col min="13315" max="13315" width="1.33203125" style="4" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.88671875" style="4"/>
+    <col min="13571" max="13571" width="1.33203125" style="4" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.88671875" style="4"/>
+    <col min="13827" max="13827" width="1.33203125" style="4" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.88671875" style="4"/>
+    <col min="14083" max="14083" width="1.33203125" style="4" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.88671875" style="4"/>
+    <col min="14339" max="14339" width="1.33203125" style="4" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.88671875" style="4"/>
+    <col min="14595" max="14595" width="1.33203125" style="4" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.88671875" style="4"/>
+    <col min="14851" max="14851" width="1.33203125" style="4" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.88671875" style="4"/>
+    <col min="15107" max="15107" width="1.33203125" style="4" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.88671875" style="4"/>
+    <col min="15363" max="15363" width="1.33203125" style="4" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.88671875" style="4"/>
+    <col min="15619" max="15619" width="1.33203125" style="4" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.88671875" style="4"/>
+    <col min="15875" max="15875" width="1.33203125" style="4" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.88671875" style="4"/>
+    <col min="16131" max="16131" width="1.33203125" style="4" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
+      <c r="O3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>1</v>
+      </c>
+      <c r="R3" s="15">
+        <v>-128</v>
+      </c>
+      <c r="S3" s="15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="11"/>
+      <c r="O4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="15">
+        <v>1</v>
+      </c>
+      <c r="R4" s="15">
+        <v>0</v>
+      </c>
+      <c r="S4" s="15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="9"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="11"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>2</v>
+      </c>
+      <c r="R5" s="15">
+        <v>-32768</v>
+      </c>
+      <c r="S5" s="15">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="9"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="12"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="15">
+        <v>2</v>
+      </c>
+      <c r="R6" s="15">
+        <v>0</v>
+      </c>
+      <c r="S6" s="15">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="12"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>3</v>
+      </c>
+      <c r="R7" s="15">
+        <v>-8388608</v>
+      </c>
+      <c r="S7" s="15">
+        <v>8388607</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="12"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="15">
+        <v>3</v>
+      </c>
+      <c r="R8" s="15">
+        <v>0</v>
+      </c>
+      <c r="S8" s="15">
+        <v>16777215</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="12"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>4</v>
+      </c>
+      <c r="R9" s="15">
+        <v>-2147483648</v>
+      </c>
+      <c r="S9" s="15">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="12"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="15">
+        <v>4</v>
+      </c>
+      <c r="R10" s="15">
+        <v>0</v>
+      </c>
+      <c r="S10" s="15">
+        <v>4294967295</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="12"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>5</v>
+      </c>
+      <c r="R11" s="15">
+        <v>-9.2233720368547697E+18</v>
+      </c>
+      <c r="S11" s="15">
+        <v>9.2233720368547697E+18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="13"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="15">
+        <v>5</v>
+      </c>
+      <c r="R12" s="15">
+        <v>0</v>
+      </c>
+      <c r="S12" s="15">
+        <v>1.84467440737095E+19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="11"/>
+      <c r="O14" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="33"/>
+    </row>
+    <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="14"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="23"/>
+      <c r="O15" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="26"/>
+    </row>
+    <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O16" s="27"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="26"/>
+    </row>
+    <row r="17" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O17" s="28"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="30"/>
+    </row>
+    <row r="18" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+    </row>
+    <row r="19" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="O15:S17"/>
+    <mergeCell ref="O14:S14"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:S17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="258" width="8.88671875" style="4"/>
+    <col min="259" max="259" width="1.33203125" style="4" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.88671875" style="4"/>
+    <col min="515" max="515" width="1.33203125" style="4" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.88671875" style="4"/>
+    <col min="771" max="771" width="1.33203125" style="4" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.88671875" style="4"/>
+    <col min="1027" max="1027" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.88671875" style="4"/>
+    <col min="1283" max="1283" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.88671875" style="4"/>
+    <col min="1539" max="1539" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.88671875" style="4"/>
+    <col min="1795" max="1795" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.88671875" style="4"/>
+    <col min="2051" max="2051" width="1.33203125" style="4" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.88671875" style="4"/>
+    <col min="2307" max="2307" width="1.33203125" style="4" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.88671875" style="4"/>
+    <col min="2563" max="2563" width="1.33203125" style="4" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.88671875" style="4"/>
+    <col min="2819" max="2819" width="1.33203125" style="4" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.88671875" style="4"/>
+    <col min="3075" max="3075" width="1.33203125" style="4" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.88671875" style="4"/>
+    <col min="3331" max="3331" width="1.33203125" style="4" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.88671875" style="4"/>
+    <col min="3587" max="3587" width="1.33203125" style="4" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.88671875" style="4"/>
+    <col min="3843" max="3843" width="1.33203125" style="4" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.88671875" style="4"/>
+    <col min="4099" max="4099" width="1.33203125" style="4" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.88671875" style="4"/>
+    <col min="4355" max="4355" width="1.33203125" style="4" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.88671875" style="4"/>
+    <col min="4611" max="4611" width="1.33203125" style="4" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.88671875" style="4"/>
+    <col min="4867" max="4867" width="1.33203125" style="4" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.88671875" style="4"/>
+    <col min="5123" max="5123" width="1.33203125" style="4" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.88671875" style="4"/>
+    <col min="5379" max="5379" width="1.33203125" style="4" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.88671875" style="4"/>
+    <col min="5635" max="5635" width="1.33203125" style="4" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.88671875" style="4"/>
+    <col min="5891" max="5891" width="1.33203125" style="4" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.88671875" style="4"/>
+    <col min="6147" max="6147" width="1.33203125" style="4" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.88671875" style="4"/>
+    <col min="6403" max="6403" width="1.33203125" style="4" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.88671875" style="4"/>
+    <col min="6659" max="6659" width="1.33203125" style="4" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.88671875" style="4"/>
+    <col min="6915" max="6915" width="1.33203125" style="4" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.88671875" style="4"/>
+    <col min="7171" max="7171" width="1.33203125" style="4" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.88671875" style="4"/>
+    <col min="7427" max="7427" width="1.33203125" style="4" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.88671875" style="4"/>
+    <col min="7683" max="7683" width="1.33203125" style="4" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.88671875" style="4"/>
+    <col min="7939" max="7939" width="1.33203125" style="4" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.88671875" style="4"/>
+    <col min="8195" max="8195" width="1.33203125" style="4" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.88671875" style="4"/>
+    <col min="8451" max="8451" width="1.33203125" style="4" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.88671875" style="4"/>
+    <col min="8707" max="8707" width="1.33203125" style="4" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.88671875" style="4"/>
+    <col min="8963" max="8963" width="1.33203125" style="4" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.88671875" style="4"/>
+    <col min="9219" max="9219" width="1.33203125" style="4" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.88671875" style="4"/>
+    <col min="9475" max="9475" width="1.33203125" style="4" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.88671875" style="4"/>
+    <col min="9731" max="9731" width="1.33203125" style="4" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.88671875" style="4"/>
+    <col min="9987" max="9987" width="1.33203125" style="4" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.88671875" style="4"/>
+    <col min="10243" max="10243" width="1.33203125" style="4" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.88671875" style="4"/>
+    <col min="10499" max="10499" width="1.33203125" style="4" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.88671875" style="4"/>
+    <col min="10755" max="10755" width="1.33203125" style="4" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.88671875" style="4"/>
+    <col min="11011" max="11011" width="1.33203125" style="4" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.88671875" style="4"/>
+    <col min="11267" max="11267" width="1.33203125" style="4" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.88671875" style="4"/>
+    <col min="11523" max="11523" width="1.33203125" style="4" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.88671875" style="4"/>
+    <col min="11779" max="11779" width="1.33203125" style="4" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.88671875" style="4"/>
+    <col min="12035" max="12035" width="1.33203125" style="4" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.88671875" style="4"/>
+    <col min="12291" max="12291" width="1.33203125" style="4" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.88671875" style="4"/>
+    <col min="12547" max="12547" width="1.33203125" style="4" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.88671875" style="4"/>
+    <col min="12803" max="12803" width="1.33203125" style="4" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.88671875" style="4"/>
+    <col min="13059" max="13059" width="1.33203125" style="4" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.88671875" style="4"/>
+    <col min="13315" max="13315" width="1.33203125" style="4" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.88671875" style="4"/>
+    <col min="13571" max="13571" width="1.33203125" style="4" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.88671875" style="4"/>
+    <col min="13827" max="13827" width="1.33203125" style="4" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.88671875" style="4"/>
+    <col min="14083" max="14083" width="1.33203125" style="4" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.88671875" style="4"/>
+    <col min="14339" max="14339" width="1.33203125" style="4" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.88671875" style="4"/>
+    <col min="14595" max="14595" width="1.33203125" style="4" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.88671875" style="4"/>
+    <col min="14851" max="14851" width="1.33203125" style="4" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.88671875" style="4"/>
+    <col min="15107" max="15107" width="1.33203125" style="4" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.88671875" style="4"/>
+    <col min="15363" max="15363" width="1.33203125" style="4" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.88671875" style="4"/>
+    <col min="15619" max="15619" width="1.33203125" style="4" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.88671875" style="4"/>
+    <col min="15875" max="15875" width="1.33203125" style="4" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.88671875" style="4"/>
+    <col min="16131" max="16131" width="1.33203125" style="4" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="19"/>
+      <c r="O3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>1</v>
+      </c>
+      <c r="R3" s="15">
+        <v>-128</v>
+      </c>
+      <c r="S3" s="15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="15">
+        <v>1</v>
+      </c>
+      <c r="R4" s="15">
+        <v>0</v>
+      </c>
+      <c r="S4" s="15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="9"/>
+      <c r="C5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="11"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>2</v>
+      </c>
+      <c r="R5" s="15">
+        <v>-32768</v>
+      </c>
+      <c r="S5" s="15">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="9"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="12"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="15">
+        <v>2</v>
+      </c>
+      <c r="R6" s="15">
+        <v>0</v>
+      </c>
+      <c r="S6" s="15">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="12"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>3</v>
+      </c>
+      <c r="R7" s="15">
+        <v>-8388608</v>
+      </c>
+      <c r="S7" s="15">
+        <v>8388607</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="12"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="15">
+        <v>3</v>
+      </c>
+      <c r="R8" s="15">
+        <v>0</v>
+      </c>
+      <c r="S8" s="15">
+        <v>16777215</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="12"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>4</v>
+      </c>
+      <c r="R9" s="15">
+        <v>-2147483648</v>
+      </c>
+      <c r="S9" s="15">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="12"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="15">
+        <v>4</v>
+      </c>
+      <c r="R10" s="15">
+        <v>0</v>
+      </c>
+      <c r="S10" s="15">
+        <v>4294967295</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="12"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>5</v>
+      </c>
+      <c r="R11" s="15">
+        <v>-9.2233720368547697E+18</v>
+      </c>
+      <c r="S11" s="15">
+        <v>9.2233720368547697E+18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="13"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="15">
+        <v>5</v>
+      </c>
+      <c r="R12" s="15">
+        <v>0</v>
+      </c>
+      <c r="S12" s="15">
+        <v>1.84467440737095E+19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="14"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="17"/>
+      <c r="O14" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="33"/>
+    </row>
+    <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O15" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="26"/>
+    </row>
+    <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O16" s="27"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="26"/>
+    </row>
+    <row r="17" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O17" s="28"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="O15:S17"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:S19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="258" width="8.88671875" style="4"/>
+    <col min="259" max="259" width="1.33203125" style="4" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.88671875" style="4"/>
+    <col min="515" max="515" width="1.33203125" style="4" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.88671875" style="4"/>
+    <col min="771" max="771" width="1.33203125" style="4" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.88671875" style="4"/>
+    <col min="1027" max="1027" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.88671875" style="4"/>
+    <col min="1283" max="1283" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.88671875" style="4"/>
+    <col min="1539" max="1539" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.88671875" style="4"/>
+    <col min="1795" max="1795" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.88671875" style="4"/>
+    <col min="2051" max="2051" width="1.33203125" style="4" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.88671875" style="4"/>
+    <col min="2307" max="2307" width="1.33203125" style="4" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.88671875" style="4"/>
+    <col min="2563" max="2563" width="1.33203125" style="4" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.88671875" style="4"/>
+    <col min="2819" max="2819" width="1.33203125" style="4" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.88671875" style="4"/>
+    <col min="3075" max="3075" width="1.33203125" style="4" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.88671875" style="4"/>
+    <col min="3331" max="3331" width="1.33203125" style="4" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.88671875" style="4"/>
+    <col min="3587" max="3587" width="1.33203125" style="4" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.88671875" style="4"/>
+    <col min="3843" max="3843" width="1.33203125" style="4" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.88671875" style="4"/>
+    <col min="4099" max="4099" width="1.33203125" style="4" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.88671875" style="4"/>
+    <col min="4355" max="4355" width="1.33203125" style="4" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.88671875" style="4"/>
+    <col min="4611" max="4611" width="1.33203125" style="4" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.88671875" style="4"/>
+    <col min="4867" max="4867" width="1.33203125" style="4" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.88671875" style="4"/>
+    <col min="5123" max="5123" width="1.33203125" style="4" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.88671875" style="4"/>
+    <col min="5379" max="5379" width="1.33203125" style="4" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.88671875" style="4"/>
+    <col min="5635" max="5635" width="1.33203125" style="4" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.88671875" style="4"/>
+    <col min="5891" max="5891" width="1.33203125" style="4" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.88671875" style="4"/>
+    <col min="6147" max="6147" width="1.33203125" style="4" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.88671875" style="4"/>
+    <col min="6403" max="6403" width="1.33203125" style="4" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.88671875" style="4"/>
+    <col min="6659" max="6659" width="1.33203125" style="4" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.88671875" style="4"/>
+    <col min="6915" max="6915" width="1.33203125" style="4" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.88671875" style="4"/>
+    <col min="7171" max="7171" width="1.33203125" style="4" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.88671875" style="4"/>
+    <col min="7427" max="7427" width="1.33203125" style="4" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.88671875" style="4"/>
+    <col min="7683" max="7683" width="1.33203125" style="4" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.88671875" style="4"/>
+    <col min="7939" max="7939" width="1.33203125" style="4" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.88671875" style="4"/>
+    <col min="8195" max="8195" width="1.33203125" style="4" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.88671875" style="4"/>
+    <col min="8451" max="8451" width="1.33203125" style="4" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.88671875" style="4"/>
+    <col min="8707" max="8707" width="1.33203125" style="4" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.88671875" style="4"/>
+    <col min="8963" max="8963" width="1.33203125" style="4" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.88671875" style="4"/>
+    <col min="9219" max="9219" width="1.33203125" style="4" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.88671875" style="4"/>
+    <col min="9475" max="9475" width="1.33203125" style="4" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.88671875" style="4"/>
+    <col min="9731" max="9731" width="1.33203125" style="4" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.88671875" style="4"/>
+    <col min="9987" max="9987" width="1.33203125" style="4" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.88671875" style="4"/>
+    <col min="10243" max="10243" width="1.33203125" style="4" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.88671875" style="4"/>
+    <col min="10499" max="10499" width="1.33203125" style="4" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.88671875" style="4"/>
+    <col min="10755" max="10755" width="1.33203125" style="4" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.88671875" style="4"/>
+    <col min="11011" max="11011" width="1.33203125" style="4" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.88671875" style="4"/>
+    <col min="11267" max="11267" width="1.33203125" style="4" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.88671875" style="4"/>
+    <col min="11523" max="11523" width="1.33203125" style="4" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.88671875" style="4"/>
+    <col min="11779" max="11779" width="1.33203125" style="4" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.88671875" style="4"/>
+    <col min="12035" max="12035" width="1.33203125" style="4" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.88671875" style="4"/>
+    <col min="12291" max="12291" width="1.33203125" style="4" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.88671875" style="4"/>
+    <col min="12547" max="12547" width="1.33203125" style="4" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.88671875" style="4"/>
+    <col min="12803" max="12803" width="1.33203125" style="4" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.88671875" style="4"/>
+    <col min="13059" max="13059" width="1.33203125" style="4" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.88671875" style="4"/>
+    <col min="13315" max="13315" width="1.33203125" style="4" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.88671875" style="4"/>
+    <col min="13571" max="13571" width="1.33203125" style="4" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.88671875" style="4"/>
+    <col min="13827" max="13827" width="1.33203125" style="4" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.88671875" style="4"/>
+    <col min="14083" max="14083" width="1.33203125" style="4" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.88671875" style="4"/>
+    <col min="14339" max="14339" width="1.33203125" style="4" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.88671875" style="4"/>
+    <col min="14595" max="14595" width="1.33203125" style="4" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.88671875" style="4"/>
+    <col min="14851" max="14851" width="1.33203125" style="4" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.88671875" style="4"/>
+    <col min="15107" max="15107" width="1.33203125" style="4" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.88671875" style="4"/>
+    <col min="15363" max="15363" width="1.33203125" style="4" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.88671875" style="4"/>
+    <col min="15619" max="15619" width="1.33203125" style="4" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.88671875" style="4"/>
+    <col min="15875" max="15875" width="1.33203125" style="4" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.88671875" style="4"/>
+    <col min="16131" max="16131" width="1.33203125" style="4" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
+      <c r="O3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>1</v>
+      </c>
+      <c r="R3" s="15">
+        <v>-128</v>
+      </c>
+      <c r="S3" s="15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="15">
+        <v>1</v>
+      </c>
+      <c r="R4" s="15">
+        <v>0</v>
+      </c>
+      <c r="S4" s="15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="9"/>
+      <c r="C5" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>2</v>
+      </c>
+      <c r="R5" s="15">
+        <v>-32768</v>
+      </c>
+      <c r="S5" s="15">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="9"/>
+      <c r="C6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="15">
+        <v>2</v>
+      </c>
+      <c r="R6" s="15">
+        <v>0</v>
+      </c>
+      <c r="S6" s="15">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9"/>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="12"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>3</v>
+      </c>
+      <c r="R7" s="15">
+        <v>-8388608</v>
+      </c>
+      <c r="S7" s="15">
+        <v>8388607</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9"/>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="12"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="15">
+        <v>3</v>
+      </c>
+      <c r="R8" s="15">
+        <v>0</v>
+      </c>
+      <c r="S8" s="15">
+        <v>16777215</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9"/>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="12"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>4</v>
+      </c>
+      <c r="R9" s="15">
+        <v>-2147483648</v>
+      </c>
+      <c r="S9" s="15">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9"/>
+      <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="12"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="15">
+        <v>4</v>
+      </c>
+      <c r="R10" s="15">
+        <v>0</v>
+      </c>
+      <c r="S10" s="15">
+        <v>4294967295</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9"/>
+      <c r="C11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="12"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>5</v>
+      </c>
+      <c r="R11" s="15">
+        <v>-9.2233720368547697E+18</v>
+      </c>
+      <c r="S11" s="15">
+        <v>9.2233720368547697E+18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9"/>
+      <c r="C12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="13"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="15">
+        <v>5</v>
+      </c>
+      <c r="R12" s="15">
+        <v>0</v>
+      </c>
+      <c r="S12" s="15">
+        <v>1.84467440737095E+19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9"/>
+      <c r="C13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9"/>
+      <c r="C14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="11"/>
+      <c r="O14" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="33"/>
+    </row>
+    <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="14"/>
+      <c r="C15" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="26"/>
+    </row>
+    <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O16" s="27"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="26"/>
+    </row>
+    <row r="17" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O17" s="28"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="30"/>
+    </row>
+    <row r="18" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+    </row>
+    <row r="19" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="O15:S17"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:S17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="258" width="8.88671875" style="4"/>
+    <col min="259" max="259" width="1.33203125" style="4" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.88671875" style="4"/>
+    <col min="515" max="515" width="1.33203125" style="4" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.88671875" style="4"/>
+    <col min="771" max="771" width="1.33203125" style="4" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.88671875" style="4"/>
+    <col min="1027" max="1027" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.88671875" style="4"/>
+    <col min="1283" max="1283" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.88671875" style="4"/>
+    <col min="1539" max="1539" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.88671875" style="4"/>
+    <col min="1795" max="1795" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.88671875" style="4"/>
+    <col min="2051" max="2051" width="1.33203125" style="4" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.88671875" style="4"/>
+    <col min="2307" max="2307" width="1.33203125" style="4" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.88671875" style="4"/>
+    <col min="2563" max="2563" width="1.33203125" style="4" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.88671875" style="4"/>
+    <col min="2819" max="2819" width="1.33203125" style="4" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.88671875" style="4"/>
+    <col min="3075" max="3075" width="1.33203125" style="4" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.88671875" style="4"/>
+    <col min="3331" max="3331" width="1.33203125" style="4" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.88671875" style="4"/>
+    <col min="3587" max="3587" width="1.33203125" style="4" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.88671875" style="4"/>
+    <col min="3843" max="3843" width="1.33203125" style="4" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.88671875" style="4"/>
+    <col min="4099" max="4099" width="1.33203125" style="4" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.88671875" style="4"/>
+    <col min="4355" max="4355" width="1.33203125" style="4" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.88671875" style="4"/>
+    <col min="4611" max="4611" width="1.33203125" style="4" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.88671875" style="4"/>
+    <col min="4867" max="4867" width="1.33203125" style="4" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.88671875" style="4"/>
+    <col min="5123" max="5123" width="1.33203125" style="4" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.88671875" style="4"/>
+    <col min="5379" max="5379" width="1.33203125" style="4" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.88671875" style="4"/>
+    <col min="5635" max="5635" width="1.33203125" style="4" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.88671875" style="4"/>
+    <col min="5891" max="5891" width="1.33203125" style="4" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.88671875" style="4"/>
+    <col min="6147" max="6147" width="1.33203125" style="4" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.88671875" style="4"/>
+    <col min="6403" max="6403" width="1.33203125" style="4" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.88671875" style="4"/>
+    <col min="6659" max="6659" width="1.33203125" style="4" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.88671875" style="4"/>
+    <col min="6915" max="6915" width="1.33203125" style="4" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.88671875" style="4"/>
+    <col min="7171" max="7171" width="1.33203125" style="4" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.88671875" style="4"/>
+    <col min="7427" max="7427" width="1.33203125" style="4" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.88671875" style="4"/>
+    <col min="7683" max="7683" width="1.33203125" style="4" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.88671875" style="4"/>
+    <col min="7939" max="7939" width="1.33203125" style="4" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.88671875" style="4"/>
+    <col min="8195" max="8195" width="1.33203125" style="4" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.88671875" style="4"/>
+    <col min="8451" max="8451" width="1.33203125" style="4" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.88671875" style="4"/>
+    <col min="8707" max="8707" width="1.33203125" style="4" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.88671875" style="4"/>
+    <col min="8963" max="8963" width="1.33203125" style="4" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.88671875" style="4"/>
+    <col min="9219" max="9219" width="1.33203125" style="4" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.88671875" style="4"/>
+    <col min="9475" max="9475" width="1.33203125" style="4" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.88671875" style="4"/>
+    <col min="9731" max="9731" width="1.33203125" style="4" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.88671875" style="4"/>
+    <col min="9987" max="9987" width="1.33203125" style="4" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.88671875" style="4"/>
+    <col min="10243" max="10243" width="1.33203125" style="4" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.88671875" style="4"/>
+    <col min="10499" max="10499" width="1.33203125" style="4" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.88671875" style="4"/>
+    <col min="10755" max="10755" width="1.33203125" style="4" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.88671875" style="4"/>
+    <col min="11011" max="11011" width="1.33203125" style="4" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.88671875" style="4"/>
+    <col min="11267" max="11267" width="1.33203125" style="4" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.88671875" style="4"/>
+    <col min="11523" max="11523" width="1.33203125" style="4" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.88671875" style="4"/>
+    <col min="11779" max="11779" width="1.33203125" style="4" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.88671875" style="4"/>
+    <col min="12035" max="12035" width="1.33203125" style="4" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.88671875" style="4"/>
+    <col min="12291" max="12291" width="1.33203125" style="4" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.88671875" style="4"/>
+    <col min="12547" max="12547" width="1.33203125" style="4" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.88671875" style="4"/>
+    <col min="12803" max="12803" width="1.33203125" style="4" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.88671875" style="4"/>
+    <col min="13059" max="13059" width="1.33203125" style="4" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.88671875" style="4"/>
+    <col min="13315" max="13315" width="1.33203125" style="4" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.88671875" style="4"/>
+    <col min="13571" max="13571" width="1.33203125" style="4" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.88671875" style="4"/>
+    <col min="13827" max="13827" width="1.33203125" style="4" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.88671875" style="4"/>
+    <col min="14083" max="14083" width="1.33203125" style="4" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.88671875" style="4"/>
+    <col min="14339" max="14339" width="1.33203125" style="4" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.88671875" style="4"/>
+    <col min="14595" max="14595" width="1.33203125" style="4" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.88671875" style="4"/>
+    <col min="14851" max="14851" width="1.33203125" style="4" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.88671875" style="4"/>
+    <col min="15107" max="15107" width="1.33203125" style="4" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.88671875" style="4"/>
+    <col min="15363" max="15363" width="1.33203125" style="4" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.88671875" style="4"/>
+    <col min="15619" max="15619" width="1.33203125" style="4" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.88671875" style="4"/>
+    <col min="15875" max="15875" width="1.33203125" style="4" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.88671875" style="4"/>
+    <col min="16131" max="16131" width="1.33203125" style="4" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="11"/>
+      <c r="O3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>1</v>
+      </c>
+      <c r="R3" s="15">
+        <v>-128</v>
+      </c>
+      <c r="S3" s="15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="15">
+        <v>1</v>
+      </c>
+      <c r="R4" s="15">
+        <v>0</v>
+      </c>
+      <c r="S4" s="15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="9"/>
+      <c r="C5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="11"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>2</v>
+      </c>
+      <c r="R5" s="15">
+        <v>-32768</v>
+      </c>
+      <c r="S5" s="15">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="9"/>
+      <c r="C6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="12"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="15">
+        <v>2</v>
+      </c>
+      <c r="R6" s="15">
+        <v>0</v>
+      </c>
+      <c r="S6" s="15">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9"/>
+      <c r="C7" s="7" t="s">
         <v>79</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="12"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>3</v>
+      </c>
+      <c r="R7" s="15">
+        <v>-8388608</v>
+      </c>
+      <c r="S7" s="15">
+        <v>8388607</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9"/>
+      <c r="C8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="12"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="15">
+        <v>3</v>
+      </c>
+      <c r="R8" s="15">
+        <v>0</v>
+      </c>
+      <c r="S8" s="15">
+        <v>16777215</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9"/>
+      <c r="C9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="12"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>4</v>
+      </c>
+      <c r="R9" s="15">
+        <v>-2147483648</v>
+      </c>
+      <c r="S9" s="15">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9"/>
+      <c r="C10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="12"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="15">
+        <v>4</v>
+      </c>
+      <c r="R10" s="15">
+        <v>0</v>
+      </c>
+      <c r="S10" s="15">
+        <v>4294967295</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9"/>
+      <c r="C11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="12"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>5</v>
+      </c>
+      <c r="R11" s="15">
+        <v>-9.2233720368547697E+18</v>
+      </c>
+      <c r="S11" s="15">
+        <v>9.2233720368547697E+18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="13"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="15">
+        <v>5</v>
+      </c>
+      <c r="R12" s="15">
+        <v>0</v>
+      </c>
+      <c r="S12" s="15">
+        <v>1.84467440737095E+19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="14"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="17"/>
+      <c r="O14" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="33"/>
+    </row>
+    <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O15" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>

--- a/Community 테이블 명세 양식.xlsx
+++ b/Community 테이블 명세 양식.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\community_workspace\CommunityWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sif\Community_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -749,31 +749,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>EQUI JOIN으로 유저 아이디 가져오기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULT MAP으로 카테고리 목록 가져오기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_board_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(bi_id)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(cate_id)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>LEFT JOIN으로 게시판 이름 가져오기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQUI JOIN으로 유저 아이디 가져오기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESULT MAP으로 카테고리 목록 가져오기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_board_info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(bi_id)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(cate_id)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1231,6 +1231,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1251,21 +1266,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2657,36 +2657,36 @@
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="17"/>
-      <c r="O14" s="31" t="s">
+      <c r="O14" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="33"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="28"/>
     </row>
     <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="26"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="31"/>
     </row>
     <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O16" s="27"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="26"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="31"/>
     </row>
     <row r="17" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O17" s="28"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="30"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="34"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -3758,36 +3758,36 @@
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="17"/>
-      <c r="O14" s="31" t="s">
+      <c r="O14" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="33"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="28"/>
     </row>
     <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="26"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="31"/>
     </row>
     <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O16" s="27"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="26"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="31"/>
     </row>
     <row r="17" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O17" s="28"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="30"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4843,13 +4843,13 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="11"/>
-      <c r="O14" s="31" t="s">
+      <c r="O14" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="33"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="28"/>
     </row>
     <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="14"/>
@@ -4864,27 +4864,27 @@
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
       <c r="M15" s="23"/>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="26"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="31"/>
     </row>
     <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O16" s="27"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="26"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="31"/>
     </row>
     <row r="17" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O17" s="28"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="30"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="35"/>
     </row>
     <row r="18" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O18" s="20"/>
@@ -5709,7 +5709,7 @@
       <c r="L4" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="25" t="s">
         <v>186</v>
       </c>
       <c r="O4" s="6" t="s">
@@ -5969,36 +5969,36 @@
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="17"/>
-      <c r="O14" s="31" t="s">
+      <c r="O14" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="33"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="28"/>
     </row>
     <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="26"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="31"/>
     </row>
     <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O16" s="27"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="26"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="31"/>
     </row>
     <row r="17" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O17" s="28"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="30"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6844,13 +6844,13 @@
         <v>182</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>191</v>
-      </c>
       <c r="M5" s="11" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6" t="s">
@@ -6895,7 +6895,7 @@
         <v>157</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -7170,13 +7170,13 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="11"/>
-      <c r="O14" s="31" t="s">
+      <c r="O14" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="33"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="28"/>
     </row>
     <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="14"/>
@@ -7199,35 +7199,35 @@
         <v>181</v>
       </c>
       <c r="K15" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="L15" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="L15" s="22" t="s">
-        <v>193</v>
-      </c>
       <c r="M15" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="O15" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="O15" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="26"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="31"/>
     </row>
     <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O16" s="27"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="26"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="31"/>
     </row>
     <row r="17" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O17" s="28"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="30"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="35"/>
     </row>
     <row r="18" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O18" s="20"/>
@@ -8375,36 +8375,36 @@
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="17"/>
-      <c r="O14" s="31" t="s">
+      <c r="O14" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="33"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="28"/>
     </row>
     <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="26"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="31"/>
     </row>
     <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O16" s="27"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="26"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="31"/>
     </row>
     <row r="17" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O17" s="28"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="30"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Community 테이블 명세 양식.xlsx
+++ b/Community 테이블 명세 양식.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sif\Community_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Works\workspace\CommunityWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEE8EB1-1A15-48B1-A880-F3942119BC7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="유저 테이블 명세서" sheetId="7" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="195">
   <si>
     <t>테이블 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -776,11 +777,15 @@
     <t>LEFT JOIN으로 게시판 이름 가져오기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>UNIQUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -1546,7 +1551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -2701,7 +2706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:S17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -3802,7 +3807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:S19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -4913,10 +4918,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:S17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -5650,11 +5655,11 @@
         <v>105</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="7" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>102</v>
@@ -6013,11 +6018,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7190,7 +7195,7 @@
         <v>94</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -7256,7 +7261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:S17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">

--- a/Community 테이블 명세 양식.xlsx
+++ b/Community 테이블 명세 양식.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Works\workspace\CommunityWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sif\Community_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEE8EB1-1A15-48B1-A880-F3942119BC7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="유저 테이블 명세서" sheetId="7" r:id="rId1"/>
@@ -785,7 +784,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -1551,12 +1550,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2706,12 +2703,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3807,12 +3802,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4918,12 +4911,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6018,12 +6009,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7261,12 +7250,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>

--- a/Community 테이블 명세 양식.xlsx
+++ b/Community 테이블 명세 양식.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="유저 테이블 명세서" sheetId="7" r:id="rId1"/>
-    <sheet name="유저권한 테이블 명세서" sheetId="9" r:id="rId2"/>
-    <sheet name="게시판 정보 테이블 명세서" sheetId="1" r:id="rId3"/>
-    <sheet name="카테고리 테이블 명세서" sheetId="6" r:id="rId4"/>
-    <sheet name="게시글 테이블 명세서" sheetId="10" r:id="rId5"/>
-    <sheet name="댓글 테이블 명세서" sheetId="5" r:id="rId6"/>
+    <sheet name="유저 테이블" sheetId="7" r:id="rId1"/>
+    <sheet name="유저권한 테이블" sheetId="9" r:id="rId2"/>
+    <sheet name="게시판 정보 테이블" sheetId="1" r:id="rId3"/>
+    <sheet name="카테고리 테이블" sheetId="6" r:id="rId4"/>
+    <sheet name="게시글 테이블" sheetId="10" r:id="rId5"/>
+    <sheet name="댓글 테이블" sheetId="5" r:id="rId6"/>
+    <sheet name="외래키 설정하기" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="202">
   <si>
     <t>테이블 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -83,10 +84,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>작성시각</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>제목</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -107,10 +104,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>문자열(125)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -131,10 +124,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AUTO_INCREMENT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -171,14 +160,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>board_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>board_subject</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -211,10 +192,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TINYINT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SMALLINT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -223,98 +200,504 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>INT</t>
+    <t>Signed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unsigned</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_board</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_p_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT 0</t>
+  </si>
+  <si>
+    <t>작성자 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원글 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글 구현하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_filename</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmt_p_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원댓글 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmt_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외래키 설정하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_recommend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmt_writer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성자 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 삭제여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmt_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmt_delete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmt_recommend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(256)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(256)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_delete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>카테고리 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cate_text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cate_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_users</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorities</t>
+  </si>
+  <si>
+    <t>유저 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>accountNonExpired</t>
+  </si>
+  <si>
+    <t>accountNonLocked</t>
+  </si>
+  <si>
+    <t>credentialsNonExpired</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT true</t>
+  </si>
+  <si>
+    <t>VARCHAR(125)</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 아이디</t>
+  </si>
+  <si>
+    <t>유저 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 활성화 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 만료 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 잠금 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 만료 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(50)</t>
+  </si>
+  <si>
+    <t>문자열(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>논리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저권한 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BIGINT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Signed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unsigned</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>숫자</t>
+  </si>
+  <si>
+    <t>FK_USERS_AUTH_username</t>
+  </si>
+  <si>
+    <t>tbl_users</t>
+  </si>
+  <si>
+    <t>(username)</t>
+  </si>
+  <si>
+    <t>ON DELETE CASCADE</t>
+  </si>
+  <si>
+    <t>FK_USERS_BOARD_board_writer</t>
+  </si>
+  <si>
+    <t>FK_BOARD_COMMENT_board_no</t>
   </si>
   <si>
     <t>tbl_board</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_p_no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT 0</t>
-  </si>
-  <si>
-    <t>작성자 ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 번호</t>
+  </si>
+  <si>
+    <t>댓글의 원글</t>
+  </si>
+  <si>
+    <t>(board_no)</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_board_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cate_bi_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_board_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK_BI_CATEGORY_bi_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 정보 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 정보 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK_BI_BOARD_board_info</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>원글 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>답글 구현하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>옵션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT 0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_filename</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmt_p_no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원댓글 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmt_no</t>
+  </si>
+  <si>
+    <t>cmt_board_no</t>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON DELETE CASCADE
+게시판 별 카테고리 목록 설정하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUI JOIN으로 유저 아이디 가져오기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_board_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(bi_id)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEFT JOIN으로 게시판 이름 가져오기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 순서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 깊이</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -322,7 +705,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>외래키 설정하기</t>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmt_group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmt_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmt_depth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>birth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT CURRENT_TIMESTAMP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -333,39 +744,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>추천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_recommend</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmt_writer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 작성자 ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 작성일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 작성시각</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 삭제여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자</t>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -373,411 +763,41 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cmt_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmt_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmt_content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmt_delete</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmt_recommend</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(256)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(256)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>cmt_datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타임스탬프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 아이디</t>
   </si>
   <si>
     <t>board_category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_delete</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALTER TABLE 자식테이블
-ADD CONSTRAINT 제약조건(외래키)이름
-FOREIGN KEY (자식칼럼)
-REFERENCES 부모테이블(부모칼럼)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK_CATEGORY_BOARD_board_category</t>
   </si>
   <si>
     <t>tbl_category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리 ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-  </si>
-  <si>
-    <t>AUTO_INCREMENT</t>
-  </si>
-  <si>
-    <t>카테고리 내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cate_text</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cate_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_users</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>authorities</t>
-  </si>
-  <si>
-    <t>유저 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>enabled</t>
-  </si>
-  <si>
-    <t>accountNonExpired</t>
-  </si>
-  <si>
-    <t>accountNonLocked</t>
-  </si>
-  <si>
-    <t>credentialsNonExpired</t>
-  </si>
-  <si>
-    <t>nickname</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT true</t>
-  </si>
-  <si>
-    <t>VARCHAR(125)</t>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 아이디</t>
-  </si>
-  <si>
-    <t>유저 아이디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정 활성화 여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정 만료 여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정 잠금 여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 만료 여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>핸드폰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(50)</t>
-  </si>
-  <si>
-    <t>문자열(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>논리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저권한 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>authority</t>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-  </si>
-  <si>
-    <t>숫자</t>
-  </si>
-  <si>
-    <t>FK_USERS_AUTH_username</t>
-  </si>
-  <si>
-    <t>tbl_users</t>
-  </si>
-  <si>
-    <t>(username)</t>
-  </si>
-  <si>
-    <t>ON DELETE CASCADE</t>
-  </si>
-  <si>
-    <t>FK_USERS_BOARD_board_writer</t>
-  </si>
-  <si>
-    <t>FK_BOARD_COMMENT_board_no</t>
-  </si>
-  <si>
-    <t>tbl_board</t>
-  </si>
-  <si>
-    <t>댓글의 원글</t>
-  </si>
-  <si>
-    <t>(board_no)</t>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_board_info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cate_bi_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_board_info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK_BI_CATEGORY_bi_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 정보 아이디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 정보 아이디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리 아이디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK_CATEGORY_BOARD_board_category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK_BI_BOARD_board_info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원글 번호</t>
-  </si>
-  <si>
-    <t>cmt_board_no</t>
-  </si>
-  <si>
-    <t>AUTO_INCREMENT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ON DELETE CASCADE
-게시판 별 카테고리 목록 설정하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQUI JOIN으로 유저 아이디 가져오기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(cate_id)</t>
   </si>
   <si>
     <t>RESULT MAP으로 카테고리 목록 가져오기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_board_info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(bi_id)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(cate_id)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEFT JOIN으로 게시판 이름 가져오기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT CURRENT_TIMESTAMP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1551,13 +1571,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S17"/>
+  <dimension ref="B1:M14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
@@ -2207,7 +2227,7 @@
     <col min="16141" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -2219,7 +2239,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2242,7 +2262,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -2256,78 +2276,48 @@
       <c r="M2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="19"/>
-      <c r="O3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="15">
-        <v>1</v>
-      </c>
-      <c r="R3" s="15">
-        <v>-128</v>
-      </c>
-      <c r="S3" s="15">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -2336,180 +2326,119 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="11"/>
-      <c r="O4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="15">
-        <v>1</v>
-      </c>
-      <c r="R4" s="15">
-        <v>0</v>
-      </c>
-      <c r="S4" s="15">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="11"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" s="15">
-        <v>2</v>
-      </c>
-      <c r="R5" s="15">
-        <v>-32768</v>
-      </c>
-      <c r="S5" s="15">
-        <v>32767</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="12"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="15">
-        <v>2</v>
-      </c>
-      <c r="R6" s="15">
-        <v>0</v>
-      </c>
-      <c r="S6" s="15">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="12"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>3</v>
-      </c>
-      <c r="R7" s="15">
-        <v>-8388608</v>
-      </c>
-      <c r="S7" s="15">
-        <v>8388607</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="12"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="15">
-        <v>3</v>
-      </c>
-      <c r="R8" s="15">
-        <v>0</v>
-      </c>
-      <c r="S8" s="15">
-        <v>16777215</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -2517,33 +2446,20 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="12"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" s="15">
-        <v>4</v>
-      </c>
-      <c r="R9" s="15">
-        <v>-2147483648</v>
-      </c>
-      <c r="S9" s="15">
-        <v>2147483647</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="6" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -2552,31 +2468,20 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="12"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="15">
-        <v>4</v>
-      </c>
-      <c r="R10" s="15">
-        <v>0</v>
-      </c>
-      <c r="S10" s="15">
-        <v>4294967295</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -2585,33 +2490,20 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="12"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="15">
-        <v>5</v>
-      </c>
-      <c r="R11" s="15">
-        <v>-9.2233720368547697E+18</v>
-      </c>
-      <c r="S11" s="15">
-        <v>9.2233720368547697E+18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="7" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -2620,19 +2512,8 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="13"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="15">
-        <v>5</v>
-      </c>
-      <c r="R12" s="15">
-        <v>0</v>
-      </c>
-      <c r="S12" s="15">
-        <v>1.84467440737095E+19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -2646,7 +2527,7 @@
       <c r="L13" s="21"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="14"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -2659,42 +2540,8 @@
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="17"/>
-      <c r="O14" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="28"/>
-    </row>
-    <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O15" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="31"/>
-    </row>
-    <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O16" s="32"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="31"/>
-    </row>
-    <row r="17" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O17" s="33"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="O15:S17"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2704,13 +2551,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S17"/>
+  <dimension ref="B1:M14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
@@ -3360,7 +3207,7 @@
     <col min="16141" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -3372,7 +3219,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3395,7 +3242,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -3409,125 +3256,82 @@
       <c r="M2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="19"/>
-      <c r="O3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="15">
-        <v>1</v>
-      </c>
-      <c r="R3" s="15">
-        <v>-128</v>
-      </c>
-      <c r="S3" s="15">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="15">
-        <v>1</v>
-      </c>
-      <c r="R4" s="15">
-        <v>0</v>
-      </c>
-      <c r="S4" s="15">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3536,21 +3340,8 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="11"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" s="15">
-        <v>2</v>
-      </c>
-      <c r="R5" s="15">
-        <v>-32768</v>
-      </c>
-      <c r="S5" s="15">
-        <v>32767</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -3563,19 +3354,8 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="12"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="15">
-        <v>2</v>
-      </c>
-      <c r="R6" s="15">
-        <v>0</v>
-      </c>
-      <c r="S6" s="15">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -3588,21 +3368,8 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="12"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>3</v>
-      </c>
-      <c r="R7" s="15">
-        <v>-8388608</v>
-      </c>
-      <c r="S7" s="15">
-        <v>8388607</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -3615,19 +3382,8 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="12"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="15">
-        <v>3</v>
-      </c>
-      <c r="R8" s="15">
-        <v>0</v>
-      </c>
-      <c r="S8" s="15">
-        <v>16777215</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -3640,21 +3396,8 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="12"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" s="15">
-        <v>4</v>
-      </c>
-      <c r="R9" s="15">
-        <v>-2147483648</v>
-      </c>
-      <c r="S9" s="15">
-        <v>2147483647</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -3667,19 +3410,8 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="12"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="15">
-        <v>4</v>
-      </c>
-      <c r="R10" s="15">
-        <v>0</v>
-      </c>
-      <c r="S10" s="15">
-        <v>4294967295</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -3692,21 +3424,8 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="12"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="15">
-        <v>5</v>
-      </c>
-      <c r="R11" s="15">
-        <v>-9.2233720368547697E+18</v>
-      </c>
-      <c r="S11" s="15">
-        <v>9.2233720368547697E+18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3719,19 +3438,8 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="13"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="15">
-        <v>5</v>
-      </c>
-      <c r="R12" s="15">
-        <v>0</v>
-      </c>
-      <c r="S12" s="15">
-        <v>1.84467440737095E+19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -3745,7 +3453,7 @@
       <c r="L13" s="21"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="14"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -3758,42 +3466,8 @@
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="17"/>
-      <c r="O14" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="28"/>
-    </row>
-    <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O15" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="31"/>
-    </row>
-    <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O16" s="32"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="31"/>
-    </row>
-    <row r="17" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O17" s="33"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="O15:S17"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3809,7 +3483,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
@@ -4459,7 +4133,7 @@
     <col min="16141" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -4471,7 +4145,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4494,7 +4168,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -4508,83 +4182,53 @@
       <c r="M2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="19"/>
-      <c r="O3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="15">
-        <v>1</v>
-      </c>
-      <c r="R3" s="15">
-        <v>-128</v>
-      </c>
-      <c r="S3" s="15">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -4592,21 +4236,8 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="11"/>
-      <c r="O4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="15">
-        <v>1</v>
-      </c>
-      <c r="R4" s="15">
-        <v>0</v>
-      </c>
-      <c r="S4" s="15">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -4619,21 +4250,8 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="11"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" s="15">
-        <v>2</v>
-      </c>
-      <c r="R5" s="15">
-        <v>-32768</v>
-      </c>
-      <c r="S5" s="15">
-        <v>32767</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -4646,19 +4264,8 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="12"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="15">
-        <v>2</v>
-      </c>
-      <c r="R6" s="15">
-        <v>0</v>
-      </c>
-      <c r="S6" s="15">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -4671,21 +4278,8 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="12"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>3</v>
-      </c>
-      <c r="R7" s="15">
-        <v>-8388608</v>
-      </c>
-      <c r="S7" s="15">
-        <v>8388607</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -4698,19 +4292,8 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="12"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="15">
-        <v>3</v>
-      </c>
-      <c r="R8" s="15">
-        <v>0</v>
-      </c>
-      <c r="S8" s="15">
-        <v>16777215</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -4723,21 +4306,8 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="12"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q9" s="15">
-        <v>4</v>
-      </c>
-      <c r="R9" s="15">
-        <v>-2147483648</v>
-      </c>
-      <c r="S9" s="15">
-        <v>2147483647</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -4750,19 +4320,8 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="12"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="15">
-        <v>4</v>
-      </c>
-      <c r="R10" s="15">
-        <v>0</v>
-      </c>
-      <c r="S10" s="15">
-        <v>4294967295</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -4775,21 +4334,8 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="12"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q11" s="15">
-        <v>5</v>
-      </c>
-      <c r="R11" s="15">
-        <v>-9.2233720368547697E+18</v>
-      </c>
-      <c r="S11" s="15">
-        <v>9.2233720368547697E+18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4802,19 +4348,8 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="13"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="15">
-        <v>5</v>
-      </c>
-      <c r="R12" s="15">
-        <v>0</v>
-      </c>
-      <c r="S12" s="15">
-        <v>1.84467440737095E+19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -4828,7 +4363,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -4841,15 +4376,8 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="11"/>
-      <c r="O14" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="28"/>
-    </row>
-    <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="14"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -4862,27 +4390,6 @@
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
       <c r="M15" s="23"/>
-      <c r="O15" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="31"/>
-    </row>
-    <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O16" s="32"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="31"/>
-    </row>
-    <row r="17" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O17" s="33"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="35"/>
     </row>
     <row r="18" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O18" s="20"/>
@@ -4899,10 +4406,6 @@
       <c r="S19" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="O15:S17"/>
-    <mergeCell ref="O14:S14"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4912,13 +4415,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S17"/>
+  <dimension ref="B1:M14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="11.21875" style="4" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
@@ -5567,7 +5070,7 @@
     <col min="16141" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -5579,7 +5082,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5602,7 +5105,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -5616,125 +5119,82 @@
       <c r="M2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="7" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="19"/>
-      <c r="O3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="15">
-        <v>1</v>
-      </c>
-      <c r="R3" s="15">
-        <v>-128</v>
-      </c>
-      <c r="S3" s="15">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="15">
-        <v>1</v>
-      </c>
-      <c r="R4" s="15">
-        <v>0</v>
-      </c>
-      <c r="S4" s="15">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -5743,21 +5203,8 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="11"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" s="15">
-        <v>2</v>
-      </c>
-      <c r="R5" s="15">
-        <v>-32768</v>
-      </c>
-      <c r="S5" s="15">
-        <v>32767</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -5770,19 +5217,8 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="12"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="15">
-        <v>2</v>
-      </c>
-      <c r="R6" s="15">
-        <v>0</v>
-      </c>
-      <c r="S6" s="15">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -5795,21 +5231,8 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="12"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>3</v>
-      </c>
-      <c r="R7" s="15">
-        <v>-8388608</v>
-      </c>
-      <c r="S7" s="15">
-        <v>8388607</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -5822,19 +5245,8 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="12"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="15">
-        <v>3</v>
-      </c>
-      <c r="R8" s="15">
-        <v>0</v>
-      </c>
-      <c r="S8" s="15">
-        <v>16777215</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -5847,21 +5259,8 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="12"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" s="15">
-        <v>4</v>
-      </c>
-      <c r="R9" s="15">
-        <v>-2147483648</v>
-      </c>
-      <c r="S9" s="15">
-        <v>2147483647</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -5874,19 +5273,8 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="12"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="15">
-        <v>4</v>
-      </c>
-      <c r="R10" s="15">
-        <v>0</v>
-      </c>
-      <c r="S10" s="15">
-        <v>4294967295</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -5899,21 +5287,8 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="12"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="15">
-        <v>5</v>
-      </c>
-      <c r="R11" s="15">
-        <v>-9.2233720368547697E+18</v>
-      </c>
-      <c r="S11" s="15">
-        <v>9.2233720368547697E+18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -5926,19 +5301,8 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="13"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="15">
-        <v>5</v>
-      </c>
-      <c r="R12" s="15">
-        <v>0</v>
-      </c>
-      <c r="S12" s="15">
-        <v>1.84467440737095E+19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -5952,7 +5316,7 @@
       <c r="L13" s="21"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="14"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -5965,42 +5329,8 @@
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="17"/>
-      <c r="O14" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="28"/>
-    </row>
-    <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O15" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="31"/>
-    </row>
-    <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O16" s="32"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="31"/>
-    </row>
-    <row r="17" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O17" s="33"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="O15:S17"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6012,11 +5342,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
@@ -6024,11 +5354,11 @@
     <col min="6" max="6" width="15.33203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="10.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.77734375" style="4" bestFit="1" customWidth="1"/>
@@ -6666,7 +5996,7 @@
     <col min="16141" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -6678,7 +6008,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6701,7 +6031,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -6715,278 +6045,193 @@
       <c r="M2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="19"/>
-      <c r="O3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="15">
-        <v>1</v>
-      </c>
-      <c r="R3" s="15">
-        <v>-128</v>
-      </c>
-      <c r="S3" s="15">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="15">
-        <v>1</v>
-      </c>
-      <c r="R4" s="15">
-        <v>0</v>
-      </c>
-      <c r="S4" s="15">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" s="15">
-        <v>2</v>
-      </c>
-      <c r="R5" s="15">
-        <v>-32768</v>
-      </c>
-      <c r="S5" s="15">
-        <v>32767</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="15">
-        <v>2</v>
-      </c>
-      <c r="R6" s="15">
-        <v>0</v>
-      </c>
-      <c r="S6" s="15">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="7"/>
+        <v>200</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>184</v>
+      </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="12"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>3</v>
-      </c>
-      <c r="R7" s="15">
-        <v>-8388608</v>
-      </c>
-      <c r="S7" s="15">
-        <v>8388607</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="12"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="15">
-        <v>3</v>
-      </c>
-      <c r="R8" s="15">
-        <v>0</v>
-      </c>
-      <c r="S8" s="15">
-        <v>16777215</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -6994,234 +6239,148 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="12"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" s="15">
-        <v>4</v>
-      </c>
-      <c r="R9" s="15">
-        <v>-2147483648</v>
-      </c>
-      <c r="S9" s="15">
-        <v>2147483647</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="7" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="12"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="15">
-        <v>4</v>
-      </c>
-      <c r="R10" s="15">
-        <v>0</v>
-      </c>
-      <c r="S10" s="15">
-        <v>4294967295</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="7" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7" t="s">
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9"/>
+      <c r="C12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="12"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="15">
-        <v>5</v>
-      </c>
-      <c r="R11" s="15">
-        <v>-9.2233720368547697E+18</v>
-      </c>
-      <c r="S11" s="15">
-        <v>9.2233720368547697E+18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9"/>
-      <c r="C12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="13"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="15">
-        <v>5</v>
-      </c>
-      <c r="R12" s="15">
-        <v>0</v>
-      </c>
-      <c r="S12" s="15">
-        <v>1.84467440737095E+19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9"/>
       <c r="C14" s="6" t="s">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="11"/>
-      <c r="O14" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="28"/>
-    </row>
-    <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="14"/>
-      <c r="C15" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
-      <c r="J15" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="O15" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="31"/>
-    </row>
-    <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O16" s="32"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="31"/>
-    </row>
-    <row r="17" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O17" s="33"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="35"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="23"/>
     </row>
     <row r="18" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O18" s="20"/>
@@ -7238,10 +6397,6 @@
       <c r="S19" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="O15:S17"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7251,13 +6406,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S17"/>
+  <dimension ref="B1:M14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
@@ -7265,7 +6422,7 @@
     <col min="6" max="6" width="15.33203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
@@ -7907,7 +7064,7 @@
     <col min="16141" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -7919,7 +7076,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7942,7 +7099,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -7956,128 +7113,85 @@
       <c r="M2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="11"/>
-      <c r="O3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="15">
-        <v>1</v>
-      </c>
-      <c r="R3" s="15">
-        <v>-128</v>
-      </c>
-      <c r="S3" s="15">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="15">
-        <v>1</v>
-      </c>
-      <c r="R4" s="15">
-        <v>0</v>
-      </c>
-      <c r="S4" s="15">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -8085,36 +7199,23 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="11"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" s="15">
-        <v>2</v>
-      </c>
-      <c r="R5" s="15">
-        <v>-32768</v>
-      </c>
-      <c r="S5" s="15">
-        <v>32767</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -8122,102 +7223,71 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="12"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="15">
-        <v>2</v>
-      </c>
-      <c r="R6" s="15">
-        <v>0</v>
-      </c>
-      <c r="S6" s="15">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>190</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="12"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>3</v>
-      </c>
-      <c r="R7" s="15">
-        <v>-8388608</v>
-      </c>
-      <c r="S7" s="15">
-        <v>8388607</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="7" t="s">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>190</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="12"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="15">
-        <v>3</v>
-      </c>
-      <c r="R8" s="15">
-        <v>0</v>
-      </c>
-      <c r="S8" s="15">
-        <v>16777215</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -8225,136 +7295,110 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="12"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" s="15">
-        <v>4</v>
-      </c>
-      <c r="R9" s="15">
-        <v>-2147483648</v>
-      </c>
-      <c r="S9" s="15">
-        <v>2147483647</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
-      <c r="C10" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
       <c r="M10" s="12"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="15">
-        <v>4</v>
-      </c>
-      <c r="R10" s="15">
-        <v>0</v>
-      </c>
-      <c r="S10" s="15">
-        <v>4294967295</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="12"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="15">
-        <v>5</v>
-      </c>
-      <c r="R11" s="15">
-        <v>-9.2233720368547697E+18</v>
-      </c>
-      <c r="S11" s="15">
-        <v>9.2233720368547697E+18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="C12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="13"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="15">
-        <v>5</v>
-      </c>
-      <c r="R12" s="15">
-        <v>0</v>
-      </c>
-      <c r="S12" s="15">
-        <v>1.84467440737095E+19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="14"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -8363,49 +7407,240 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="17"/>
-      <c r="O14" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="28"/>
-    </row>
-    <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O15" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="31"/>
-    </row>
-    <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O16" s="32"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="31"/>
-    </row>
-    <row r="17" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O17" s="33"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="35"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="O15:S17"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15">
+        <v>-128</v>
+      </c>
+      <c r="F3" s="15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="15">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15">
+        <v>-32768</v>
+      </c>
+      <c r="F5" s="15">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="15">
+        <v>2</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="15">
+        <v>3</v>
+      </c>
+      <c r="E7" s="15">
+        <v>-8388608</v>
+      </c>
+      <c r="F7" s="15">
+        <v>8388607</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="15">
+        <v>3</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15">
+        <v>16777215</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="15">
+        <v>4</v>
+      </c>
+      <c r="E9" s="15">
+        <v>-2147483648</v>
+      </c>
+      <c r="F9" s="15">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="15">
+        <v>4</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>4294967295</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="15">
+        <v>5</v>
+      </c>
+      <c r="E11" s="15">
+        <v>-9.2233720368547697E+18</v>
+      </c>
+      <c r="F11" s="15">
+        <v>9.2233720368547697E+18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="15">
+        <v>5</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1.84467440737095E+19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="32"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F17"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Community 테이블 명세 양식.xlsx
+++ b/Community 테이블 명세 양식.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="유저 테이블" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="200">
   <si>
     <t>테이블 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -235,10 +235,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>원글 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>답글 구현하기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -275,10 +271,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>원댓글 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>cmt_no</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -568,21 +560,12 @@
     <t>(username)</t>
   </si>
   <si>
-    <t>ON DELETE CASCADE</t>
-  </si>
-  <si>
-    <t>FK_USERS_BOARD_board_writer</t>
-  </si>
-  <si>
     <t>FK_BOARD_COMMENT_board_no</t>
   </si>
   <si>
     <t>tbl_board</t>
   </si>
   <si>
-    <t>댓글의 원글</t>
-  </si>
-  <si>
     <t>(board_no)</t>
   </si>
   <si>
@@ -626,10 +609,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bi_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FK_BI_CATEGORY_bi_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -646,17 +625,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>게시판 정보 아이디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK_BI_BOARD_board_info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원글 번호</t>
-  </si>
-  <si>
     <t>cmt_board_no</t>
   </si>
   <si>
@@ -664,140 +632,177 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>(bi_id)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 순서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 깊이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmt_group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmt_depth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>birth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmt_datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타임스탬프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 아이디</t>
+  </si>
+  <si>
+    <t>board_category</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모글 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모댓글 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모글 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 순서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 깊이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_depth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEFT JOIN으로 게시판 이름 가져오기
+게시판 정보가 삭제돼도 게시글은 DB에 남아있도록 외래키 설정하지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUI JOIN으로 유저 아이디 가져오기
+작성자 계정이 삭제돼도 쓴 글은 남아있도록 외래키 설정하지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리가 삭제돼도 쓴 글은 남아있도록 외래키 설정하지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>ON DELETE CASCADE
-게시판 별 카테고리 목록 설정하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQUI JOIN으로 유저 아이디 가져오기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_board_info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(bi_id)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEFT JOIN으로 게시판 이름 가져오기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNIQUE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 그룹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 순서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 깊이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmt_group</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmt_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmt_depth</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>생년월일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>birth</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_datetime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT CURRENT_TIMESTAMP</t>
+부모글 삭제돼면 댓글 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON DELETE CASCADE
+게시판 삭제돼면 연결된 카테고리 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON DELETE CASCADE
+유저 삭제돼면 유저권한도 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 정보 테이블</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ALTER TABLE 자식테이블
 ADD CONSTRAINT 제약조건(외래키)이름
 FOREIGN KEY (자식칼럼)
-REFERENCES 부모테이블(부모칼럼)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmt_datetime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>타임스탬프</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리 아이디</t>
-  </si>
-  <si>
-    <t>board_category</t>
-  </si>
-  <si>
-    <t>FK_CATEGORY_BOARD_board_category</t>
-  </si>
-  <si>
-    <t>tbl_category</t>
-  </si>
-  <si>
-    <t>(cate_id)</t>
-  </si>
-  <si>
-    <t>RESULT MAP으로 카테고리 목록 가져오기</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT CURRENT_TIMESTAMP</t>
+REFERENCES 부모테이블(부모칼럼)
+ON DELETE CASCADE(부모 데이터 삭제시 연결된 자식 데이터 삭제)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmt_order</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1182,7 +1187,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1290,6 +1295,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1575,9 +1583,9 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
@@ -2227,7 +2235,7 @@
     <col min="16141" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -2239,7 +2247,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2262,7 +2270,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -2277,25 +2285,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -2303,21 +2311,21 @@
       <c r="L3" s="18"/>
       <c r="M3" s="19"/>
     </row>
-    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -2327,115 +2335,115 @@
       <c r="L4" s="6"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>24</v>
@@ -2447,19 +2455,19 @@
       <c r="L9" s="7"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -2469,19 +2477,19 @@
       <c r="L10" s="6"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="E11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -2491,19 +2499,19 @@
       <c r="L11" s="7"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="7" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -2513,7 +2521,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -2527,7 +2535,7 @@
       <c r="L13" s="21"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="14"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -2555,9 +2563,9 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
@@ -2569,7 +2577,7 @@
     <col min="10" max="10" width="19.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="10.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.77734375" style="4" bestFit="1" customWidth="1"/>
@@ -3207,7 +3215,7 @@
     <col min="16141" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -3219,7 +3227,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3242,7 +3250,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -3257,25 +3265,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>23</v>
@@ -3285,53 +3293,53 @@
       <c r="L3" s="18"/>
       <c r="M3" s="19"/>
     </row>
-    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M4" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3341,7 +3349,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -3355,7 +3363,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -3369,7 +3377,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -3383,7 +3391,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -3397,7 +3405,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -3411,7 +3419,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -3425,7 +3433,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3439,7 +3447,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -3453,7 +3461,7 @@
       <c r="L13" s="21"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="14"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -3481,10 +3489,10 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
@@ -4133,7 +4141,7 @@
     <col min="16141" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -4145,7 +4153,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4168,7 +4176,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -4183,46 +4191,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>153</v>
-      </c>
       <c r="F3" s="18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="19"/>
     </row>
-    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>29</v>
@@ -4237,7 +4245,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -4251,7 +4259,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -4265,7 +4273,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -4279,7 +4287,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -4293,7 +4301,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -4307,7 +4315,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -4321,7 +4329,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -4335,7 +4343,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4349,7 +4357,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -4363,7 +4371,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -4377,7 +4385,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="14"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -4391,14 +4399,14 @@
       <c r="L15" s="22"/>
       <c r="M15" s="23"/>
     </row>
-    <row r="18" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="15:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
     </row>
-    <row r="19" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="15:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
       <c r="Q19" s="20"/>
@@ -4419,9 +4427,9 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" style="4" customWidth="1"/>
     <col min="2" max="2" width="11.21875" style="4" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
@@ -5070,7 +5078,7 @@
     <col min="16141" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -5082,7 +5090,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5105,7 +5113,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -5120,78 +5128,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="19"/>
     </row>
-    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="M4" s="25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>29</v>
@@ -5204,7 +5212,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -5218,7 +5226,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -5232,7 +5240,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -5246,7 +5254,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -5260,7 +5268,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -5274,7 +5282,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -5288,7 +5296,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -5302,7 +5310,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -5316,7 +5324,7 @@
       <c r="L13" s="21"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="14"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -5342,11 +5350,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
@@ -5996,7 +6006,7 @@
     <col min="16141" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -6008,7 +6018,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6031,7 +6041,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -6046,7 +6056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
@@ -6074,12 +6084,12 @@
       <c r="L3" s="18"/>
       <c r="M3" s="19"/>
     </row>
-    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
@@ -6095,140 +6105,124 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
-      <c r="C5" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="6"/>
+      <c r="C5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>198</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="7" t="s">
-        <v>184</v>
-      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
-      <c r="C8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>24</v>
@@ -6238,158 +6232,226 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M9" s="36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="7" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="7"/>
+        <v>180</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9"/>
+      <c r="C12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9"/>
+      <c r="C13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9"/>
+      <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9"/>
-      <c r="C12" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="9"/>
+      <c r="C15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="E15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6" t="s">
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="11"/>
-    </row>
-    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="9"/>
-      <c r="C13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9"/>
+      <c r="C16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="E16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6" t="s">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="9"/>
-      <c r="C14" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="14"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="23"/>
-    </row>
-    <row r="18" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9"/>
+      <c r="C17" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="14"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="23"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
     </row>
-    <row r="19" spans="15:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
       <c r="Q19" s="20"/>
@@ -6408,13 +6470,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
@@ -6425,8 +6485,7 @@
     <col min="9" max="9" width="23.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="10.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.77734375" style="4" bestFit="1" customWidth="1"/>
@@ -7064,7 +7123,7 @@
     <col min="16141" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -7076,7 +7135,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7099,7 +7158,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -7114,18 +7173,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>20</v>
@@ -7142,50 +7201,50 @@
       <c r="L3" s="6"/>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>29</v>
@@ -7200,22 +7259,22 @@
       <c r="L5" s="6"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -7224,22 +7283,22 @@
       <c r="L6" s="7"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -7248,22 +7307,22 @@
       <c r="L7" s="7"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -7272,16 +7331,16 @@
       <c r="L8" s="7"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>25</v>
@@ -7296,42 +7355,42 @@
       <c r="L9" s="7"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>26</v>
@@ -7346,22 +7405,22 @@
       <c r="L11" s="7"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
@@ -7372,16 +7431,16 @@
       <c r="L12" s="7"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>20</v>
@@ -7391,14 +7450,14 @@
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="14"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -7426,16 +7485,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
@@ -7452,7 +7511,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
         <v>42</v>
       </c>
@@ -7469,7 +7528,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
@@ -7484,7 +7543,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
         <v>40</v>
@@ -7499,7 +7558,7 @@
         <v>32767</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="15">
@@ -7512,7 +7571,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
         <v>41</v>
@@ -7527,7 +7586,7 @@
         <v>8388607</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="15">
@@ -7540,7 +7599,7 @@
         <v>16777215</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
         <v>22</v>
@@ -7555,7 +7614,7 @@
         <v>2147483647</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="15">
@@ -7568,7 +7627,7 @@
         <v>4294967295</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
         <v>20</v>
@@ -7583,7 +7642,7 @@
         <v>9.2233720368547697E+18</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="15">
@@ -7596,39 +7655,39 @@
         <v>1.84467440737095E+19</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="28"/>
     </row>
-    <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="29" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="32"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="33"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>

--- a/Community 테이블 명세 양식.xlsx
+++ b/Community 테이블 명세 양식.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="199">
   <si>
     <t>테이블 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -685,10 +685,6 @@
   </si>
   <si>
     <t>INT</t>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>INT</t>
@@ -1266,6 +1262,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1295,9 +1294,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3324,7 +3320,7 @@
         <v>138</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -4193,7 +4189,7 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>142</v>
@@ -5187,7 +5183,7 @@
         <v>158</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -5350,9 +5346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6089,7 +6083,7 @@
         <v>44</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
@@ -6117,16 +6111,16 @@
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
@@ -6141,13 +6135,13 @@
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>22</v>
@@ -6165,13 +6159,13 @@
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>22</v>
@@ -6207,7 +6201,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -6232,8 +6226,8 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="36" t="s">
-        <v>191</v>
+      <c r="M9" s="26" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -6248,7 +6242,7 @@
         <v>169</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
@@ -6411,13 +6405,13 @@
     <row r="17" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9"/>
       <c r="C17" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>135</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>171</v>
@@ -6429,7 +6423,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -7206,7 +7200,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>135</v>
@@ -7232,13 +7226,13 @@
         <v>141</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>61</v>
@@ -7271,10 +7265,10 @@
         <v>165</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -7292,13 +7286,13 @@
         <v>163</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -7319,10 +7313,10 @@
         <v>166</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -7361,20 +7355,20 @@
         <v>67</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -7663,36 +7657,36 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
+      <c r="B15" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="32"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Community 테이블 명세 양식.xlsx
+++ b/Community 테이블 명세 양식.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sif\Community_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Works\workspace\CommunityWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A972D3B-A3FC-49BD-8514-F512F0A78D23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="유저 테이블" sheetId="7" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="197">
   <si>
     <t>테이블 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -432,31 +433,27 @@
     <t>VARCHAR(50)</t>
   </si>
   <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT true</t>
+  </si>
+  <si>
+    <t>VARCHAR(125)</t>
+  </si>
+  <si>
     <t>VARCHAR(50)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT true</t>
-  </si>
-  <si>
-    <t>VARCHAR(125)</t>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>유저 아이디</t>
   </si>
   <si>
@@ -505,10 +502,6 @@
   </si>
   <si>
     <t>문자열(50)</t>
-  </si>
-  <si>
-    <t>문자열(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>문자열(30)</t>
@@ -805,7 +798,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -1574,10 +1567,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2286,7 +2279,7 @@
         <v>91</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>17</v>
@@ -2295,7 +2288,7 @@
         <v>92</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
@@ -2312,16 +2305,16 @@
         <v>89</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>93</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -2334,21 +2327,21 @@
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>94</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -2358,21 +2351,21 @@
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>95</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -2382,21 +2375,21 @@
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>96</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -2406,21 +2399,21 @@
     <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -2430,16 +2423,16 @@
     <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>98</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>24</v>
@@ -2454,16 +2447,16 @@
     <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>99</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -2476,10 +2469,10 @@
     <row r="11" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>100</v>
@@ -2498,13 +2491,13 @@
     <row r="12" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>101</v>
@@ -2554,7 +2547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -3263,19 +3256,19 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
@@ -3294,10 +3287,10 @@
         <v>90</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>92</v>
@@ -3306,33 +3299,33 @@
         <v>103</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>138</v>
-      </c>
       <c r="M4" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>103</v>
@@ -3480,7 +3473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:S19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -4189,26 +4182,26 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>142</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>144</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
@@ -4217,7 +4210,7 @@
     </row>
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>54</v>
@@ -4226,7 +4219,7 @@
         <v>47</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>29</v>
@@ -4418,7 +4411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:M14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -5142,7 +5135,7 @@
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>85</v>
@@ -5157,33 +5150,33 @@
         <v>82</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -5343,7 +5336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:S19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -6083,7 +6076,7 @@
         <v>44</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
@@ -6111,13 +6104,13 @@
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
@@ -6135,13 +6128,13 @@
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>22</v>
@@ -6159,13 +6152,13 @@
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>22</v>
@@ -6183,13 +6176,13 @@
     <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>20</v>
@@ -6201,7 +6194,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -6227,7 +6220,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -6239,17 +6232,17 @@
         <v>77</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -6405,16 +6398,16 @@
     <row r="17" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9"/>
       <c r="C17" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -6423,7 +6416,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6461,10 +6454,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:M14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7200,39 +7193,39 @@
         <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="M4" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>61</v>
@@ -7256,19 +7249,19 @@
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -7280,19 +7273,19 @@
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -7304,19 +7297,19 @@
     <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -7355,20 +7348,20 @@
         <v>67</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -7474,7 +7467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7667,7 +7660,7 @@
     </row>
     <row r="15" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>

--- a/Community 테이블 명세 양식.xlsx
+++ b/Community 테이블 명세 양식.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Works\workspace\CommunityWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sif\Community_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A972D3B-A3FC-49BD-8514-F512F0A78D23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="유저 테이블" sheetId="7" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="200">
   <si>
     <t>테이블 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -743,6 +742,23 @@
   </si>
   <si>
     <t>board_depth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 정보 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmt_order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON DELETE CASCADE
+게시판 삭제되면 연결된 카테고리 삭제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -751,31 +767,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>ON DELETE CASCADE
+부모글 삭제되면 댓글 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON DELETE CASCADE
+유저 삭제되면 유저권한도 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>EQUI JOIN으로 유저 아이디 가져오기
 작성자 계정이 삭제돼도 쓴 글은 남아있도록 외래키 설정하지 않음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리가 삭제돼도 쓴 글은 남아있도록 외래키 설정하지 않음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ON DELETE CASCADE
-부모글 삭제돼면 댓글 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ON DELETE CASCADE
-게시판 삭제돼면 연결된 카테고리 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ON DELETE CASCADE
-유저 삭제돼면 유저권한도 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 정보 테이블</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -783,22 +786,36 @@
 ADD CONSTRAINT 제약조건(외래키)이름
 FOREIGN KEY (자식칼럼)
 REFERENCES 부모테이블(부모칼럼)
-ON DELETE CASCADE(부모 데이터 삭제시 연결된 자식 데이터 삭제)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_order</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmt_order</t>
+ON DELETE
+Cascade : 부모 데이터 삭제 시 자식 데이터도 삭제 
+Set null : 부모 데이터 삭제 시 자식 테이블의 참조 컬럼을 Null로 업데이트
+Set default : 부모 데이터 삭제 시 자식 테이블의 참조 컬럼을 Default 값으로 업데이트
+Restrict : 자식 테이블이 참조하고 있을 경우, 데이터 삭제 불가
+No Action : Restrict와 동일, 옵션을 지정하지 않았을 경우 자동으로 선택된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK_CATE_BOARD_board_category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cate_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON DELETE SET DEFAULT
+카테고리 삭제 시 DEFAULT 값으로</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -856,7 +873,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1170,13 +1187,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1270,22 +1318,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1567,10 +1621,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2547,7 +2601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -3313,7 +3367,7 @@
         <v>136</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -3473,7 +3527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -4182,7 +4236,7 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>140</v>
@@ -4411,7 +4465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -5176,7 +5230,7 @@
         <v>156</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -5336,10 +5390,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6134,7 +6188,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>22</v>
@@ -6194,7 +6248,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="25" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -6220,7 +6274,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="26" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -6412,11 +6466,17 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="11" t="s">
-        <v>189</v>
+      <c r="J17" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6454,7 +6514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -7219,7 +7279,7 @@
         <v>139</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -7279,7 +7339,7 @@
         <v>161</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>170</v>
@@ -7467,10 +7527,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7659,32 +7721,53 @@
       <c r="F14" s="29"/>
     </row>
     <row r="15" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
+      <c r="B15" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="33"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="30"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+    </row>
+    <row r="19" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="30"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+    </row>
+    <row r="20" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F17"/>
+    <mergeCell ref="B15:F20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Community 테이블 명세 양식.xlsx
+++ b/Community 테이블 명세 양식.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="유저 테이블" sheetId="7" r:id="rId1"/>
@@ -1315,9 +1315,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1325,6 +1322,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1624,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5393,7 +5393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7530,9 +7530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:F20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7721,37 +7719,37 @@
       <c r="F14" s="29"/>
     </row>
     <row r="15" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="30"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="35"/>
     </row>
     <row r="17" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="30"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
       <c r="F17" s="35"/>
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="30"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
       <c r="F18" s="35"/>
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="30"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>

--- a/Community 테이블 명세 양식.xlsx
+++ b/Community 테이블 명세 양식.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sif\Community_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Works\workspace\CommunityWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603AB859-3434-419B-B933-DD7744779DB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="유저 테이블" sheetId="7" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="201">
   <si>
     <t>테이블 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -232,10 +233,6 @@
   </si>
   <si>
     <t>게시글 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>답글 구현하기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -762,11 +759,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>LEFT JOIN으로 게시판 이름 가져오기
-게시판 정보가 삭제돼도 게시글은 DB에 남아있도록 외래키 설정하지 않음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ON DELETE CASCADE
 부모글 삭제되면 댓글 삭제</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -774,11 +766,6 @@
   <si>
     <t>ON DELETE CASCADE
 유저 삭제되면 유저권한도 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQUI JOIN으로 유저 아이디 가져오기
-작성자 계정이 삭제돼도 쓴 글은 남아있도록 외래키 설정하지 않음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -807,15 +794,33 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ON DELETE SET DEFAULT
-카테고리 삭제 시 DEFAULT 값으로</t>
+    <t>ON DELETE SET NULL
+카테고리 삭제 시 NULL 값으로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEFT JOIN으로 게시판 이름 가져오기
+게시판이 삭제돼도 게시글에 영향을 미치지 않도록 외래키 설정하지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEFT JOIN으로 유저 아이디 가져오기
+작성자 계정이 삭제돼도 게시글에 영향을 미치지 않도록 외래키 설정하지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글 구현 시 어느 글에 답글을 달았는지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무한 답글 구현 시 필요한 칼럼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -1621,10 +1626,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2313,7 +2318,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -2330,23 +2335,23 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -2356,19 +2361,19 @@
     </row>
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -2381,21 +2386,21 @@
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -2405,21 +2410,21 @@
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -2429,21 +2434,21 @@
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -2453,21 +2458,21 @@
     <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -2477,16 +2482,16 @@
     <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>24</v>
@@ -2501,16 +2506,16 @@
     <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -2523,16 +2528,16 @@
     <row r="11" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -2545,16 +2550,16 @@
     <row r="12" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -2601,7 +2606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -3293,7 +3298,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -3310,23 +3315,23 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>23</v>
@@ -3338,51 +3343,51 @@
     </row>
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>136</v>
-      </c>
       <c r="M4" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3527,7 +3532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:S19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -4219,7 +4224,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -4236,26 +4241,26 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>141</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>142</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
@@ -4264,16 +4269,16 @@
     </row>
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>29</v>
@@ -4465,7 +4470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:M14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -5156,7 +5161,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -5173,26 +5178,26 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -5201,48 +5206,48 @@
     </row>
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>29</v>
@@ -5390,10 +5395,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6082,7 +6087,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -6130,7 +6135,7 @@
         <v>44</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
@@ -6146,25 +6151,25 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="11" t="s">
-        <v>51</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
@@ -6177,18 +6182,20 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="11"/>
+      <c r="M5" s="11" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>22</v>
@@ -6201,18 +6208,20 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="12"/>
+      <c r="M6" s="12" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>22</v>
@@ -6225,18 +6234,20 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="12"/>
+      <c r="M7" s="12" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>20</v>
@@ -6248,7 +6259,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="25" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -6274,7 +6285,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="26" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -6283,20 +6294,20 @@
         <v>12</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -6315,7 +6326,7 @@
         <v>32</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>24</v>
@@ -6354,7 +6365,7 @@
     <row r="13" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>16</v>
@@ -6381,13 +6392,13 @@
         <v>30</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
@@ -6400,13 +6411,13 @@
     <row r="15" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9"/>
       <c r="C15" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>35</v>
@@ -6426,13 +6437,13 @@
     <row r="16" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
       <c r="C16" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>20</v>
@@ -6452,31 +6463,31 @@
     <row r="17" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9"/>
       <c r="C17" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="F17" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="M17" s="25" t="s">
         <v>196</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6514,7 +6525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:M14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -7205,7 +7216,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -7222,16 +7233,16 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>20</v>
@@ -7253,45 +7264,45 @@
         <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>139</v>
-      </c>
       <c r="M4" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>29</v>
@@ -7309,19 +7320,19 @@
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -7333,19 +7344,19 @@
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -7357,19 +7368,19 @@
     <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -7381,13 +7392,13 @@
     <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>25</v>
@@ -7405,23 +7416,23 @@
     <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -7431,13 +7442,13 @@
     <row r="11" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>26</v>
@@ -7455,19 +7466,19 @@
     <row r="12" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
@@ -7481,13 +7492,13 @@
     <row r="13" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>20</v>
@@ -7497,7 +7508,7 @@
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -7527,7 +7538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7711,7 +7722,7 @@
     </row>
     <row r="14" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -7720,7 +7731,7 @@
     </row>
     <row r="15" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="30" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>

--- a/Community 테이블 명세 양식.xlsx
+++ b/Community 테이블 명세 양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Works\workspace\CommunityWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603AB859-3434-419B-B933-DD7744779DB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B416B1AF-7C8D-427B-9D84-E2F7CF7C554B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="유저 테이블" sheetId="7" r:id="rId1"/>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(1000)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PRIMARY KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -814,6 +810,10 @@
   </si>
   <si>
     <t>무한 답글 구현 시 필요한 칼럼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2318,7 +2318,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -2335,23 +2335,23 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -2361,19 +2361,19 @@
     </row>
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -2386,21 +2386,21 @@
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -2410,21 +2410,21 @@
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -2434,21 +2434,21 @@
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -2458,21 +2458,21 @@
     <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -2482,16 +2482,16 @@
     <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>24</v>
@@ -2506,16 +2506,16 @@
     <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -2528,16 +2528,16 @@
     <row r="11" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -2550,16 +2550,16 @@
     <row r="12" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -3298,7 +3298,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -3315,23 +3315,23 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>23</v>
@@ -3343,51 +3343,51 @@
     </row>
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="M4" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4224,7 +4224,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -4241,26 +4241,26 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>140</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>141</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
@@ -4269,19 +4269,19 @@
     </row>
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>24</v>
@@ -5161,7 +5161,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -5178,26 +5178,26 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -5206,51 +5206,51 @@
     </row>
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -5398,7 +5398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6087,7 +6087,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -6107,20 +6107,20 @@
         <v>10</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>23</v>
@@ -6132,16 +6132,16 @@
     </row>
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>20</v>
@@ -6151,25 +6151,25 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
@@ -6183,19 +6183,19 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>22</v>
@@ -6209,19 +6209,19 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>22</v>
@@ -6235,19 +6235,19 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>20</v>
@@ -6259,19 +6259,19 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>25</v>
@@ -6285,7 +6285,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -6294,20 +6294,20 @@
         <v>12</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -6323,10 +6323,10 @@
         <v>18</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>24</v>
@@ -6347,10 +6347,10 @@
         <v>19</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>24</v>
@@ -6365,13 +6365,13 @@
     <row r="13" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>20</v>
@@ -6379,7 +6379,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -6389,16 +6389,16 @@
     <row r="14" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9"/>
       <c r="C14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
@@ -6411,23 +6411,23 @@
     <row r="15" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9"/>
       <c r="C15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -6437,13 +6437,13 @@
     <row r="16" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
       <c r="C16" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>20</v>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -6463,31 +6463,31 @@
     <row r="17" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9"/>
       <c r="C17" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="F17" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="L17" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="M17" s="25" t="s">
         <v>195</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6528,7 +6528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:M14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7216,7 +7216,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -7233,23 +7233,23 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>23</v>
@@ -7261,51 +7261,51 @@
     </row>
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>138</v>
-      </c>
       <c r="M4" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>24</v>
@@ -7320,19 +7320,19 @@
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -7344,19 +7344,19 @@
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -7368,19 +7368,19 @@
     <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -7392,13 +7392,13 @@
     <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>25</v>
@@ -7416,23 +7416,23 @@
     <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -7442,16 +7442,16 @@
     <row r="11" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>24</v>
@@ -7466,23 +7466,23 @@
     <row r="12" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -7492,13 +7492,13 @@
     <row r="13" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>20</v>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -7557,24 +7557,24 @@
         <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="15">
         <v>1</v>
@@ -7588,7 +7588,7 @@
     </row>
     <row r="4" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="15">
@@ -7604,7 +7604,7 @@
     <row r="5" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="15">
         <v>2</v>
@@ -7632,7 +7632,7 @@
     <row r="7" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="15">
         <v>3</v>
@@ -7722,7 +7722,7 @@
     </row>
     <row r="14" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -7731,7 +7731,7 @@
     </row>
     <row r="15" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>

--- a/Community 테이블 명세 양식.xlsx
+++ b/Community 테이블 명세 양식.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Works\workspace\CommunityWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B416B1AF-7C8D-427B-9D84-E2F7CF7C554B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DF7660-EC49-445F-BE95-0B38243D6315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="유저 테이블" sheetId="7" r:id="rId1"/>
     <sheet name="유저권한 테이블" sheetId="9" r:id="rId2"/>
     <sheet name="게시판 정보 테이블" sheetId="1" r:id="rId3"/>
     <sheet name="카테고리 테이블" sheetId="6" r:id="rId4"/>
-    <sheet name="게시글 테이블" sheetId="10" r:id="rId5"/>
-    <sheet name="댓글 테이블" sheetId="5" r:id="rId6"/>
-    <sheet name="외래키 설정하기" sheetId="11" r:id="rId7"/>
+    <sheet name="페이지네이션 테이블" sheetId="12" r:id="rId5"/>
+    <sheet name="게시글 테이블" sheetId="10" r:id="rId6"/>
+    <sheet name="댓글 테이블" sheetId="5" r:id="rId7"/>
+    <sheet name="외래키 설정하기" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="225">
   <si>
     <t>테이블 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -606,10 +607,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>게시판 정보 아이디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>cmt_board_no</t>
   </si>
   <si>
@@ -618,10 +615,6 @@
   </si>
   <si>
     <t>(bi_id)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNIQUE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -786,10 +779,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cate_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ON DELETE SET NULL
 카테고리 삭제 시 NULL 값으로</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -814,6 +803,117 @@
   </si>
   <si>
     <t>TEXT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 활성화 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>논리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi_enabled</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(cate_id)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 보여줄 위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board
+reply
+board_main</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지네이션 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_pagination</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_bi_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모 게시판 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_location</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 페이지에 보여줄 데이터 개수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 하단에 보여줄 페이지 개수(범위)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK_BI_PAGINATION_bi_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON DELETE CASCADE
+게시판 삭제 시 페이지네이션 튜플도 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_data_cnt</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1229,7 +1329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1346,6 +1446,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2550,13 +2653,13 @@
     <row r="12" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>118</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>99</v>
@@ -3372,7 +3475,7 @@
         <v>134</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -3541,7 +3644,7 @@
   <cols>
     <col min="1" max="1" width="3.77734375" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="4" customWidth="1"/>
@@ -4241,7 +4344,7 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>138</v>
@@ -4260,7 +4363,7 @@
         <v>141</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
@@ -4275,13 +4378,13 @@
         <v>52</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>46</v>
+        <v>216</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>143</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>24</v>
@@ -4295,13 +4398,23 @@
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>201</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>202</v>
+      </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -4316,10 +4429,10 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="12"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
@@ -4473,7 +4586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:M14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5194,7 +5307,7 @@
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="7" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>83</v>
@@ -5209,7 +5322,7 @@
         <v>80</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>146</v>
@@ -5232,10 +5345,10 @@
         <v>147</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -5395,6 +5508,986 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F924D8-51EE-40D7-AF26-A281FFB42EC1}">
+  <dimension ref="B1:S19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="258" width="8.88671875" style="4"/>
+    <col min="259" max="259" width="1.33203125" style="4" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.88671875" style="4"/>
+    <col min="515" max="515" width="1.33203125" style="4" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.88671875" style="4"/>
+    <col min="771" max="771" width="1.33203125" style="4" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.88671875" style="4"/>
+    <col min="1027" max="1027" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.88671875" style="4"/>
+    <col min="1283" max="1283" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.88671875" style="4"/>
+    <col min="1539" max="1539" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.88671875" style="4"/>
+    <col min="1795" max="1795" width="1.33203125" style="4" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.88671875" style="4"/>
+    <col min="2051" max="2051" width="1.33203125" style="4" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.88671875" style="4"/>
+    <col min="2307" max="2307" width="1.33203125" style="4" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.88671875" style="4"/>
+    <col min="2563" max="2563" width="1.33203125" style="4" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.88671875" style="4"/>
+    <col min="2819" max="2819" width="1.33203125" style="4" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.88671875" style="4"/>
+    <col min="3075" max="3075" width="1.33203125" style="4" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.88671875" style="4"/>
+    <col min="3331" max="3331" width="1.33203125" style="4" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.88671875" style="4"/>
+    <col min="3587" max="3587" width="1.33203125" style="4" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.88671875" style="4"/>
+    <col min="3843" max="3843" width="1.33203125" style="4" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.88671875" style="4"/>
+    <col min="4099" max="4099" width="1.33203125" style="4" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.88671875" style="4"/>
+    <col min="4355" max="4355" width="1.33203125" style="4" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.88671875" style="4"/>
+    <col min="4611" max="4611" width="1.33203125" style="4" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.88671875" style="4"/>
+    <col min="4867" max="4867" width="1.33203125" style="4" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.88671875" style="4"/>
+    <col min="5123" max="5123" width="1.33203125" style="4" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.88671875" style="4"/>
+    <col min="5379" max="5379" width="1.33203125" style="4" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.88671875" style="4"/>
+    <col min="5635" max="5635" width="1.33203125" style="4" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.88671875" style="4"/>
+    <col min="5891" max="5891" width="1.33203125" style="4" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.88671875" style="4"/>
+    <col min="6147" max="6147" width="1.33203125" style="4" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.88671875" style="4"/>
+    <col min="6403" max="6403" width="1.33203125" style="4" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.88671875" style="4"/>
+    <col min="6659" max="6659" width="1.33203125" style="4" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.88671875" style="4"/>
+    <col min="6915" max="6915" width="1.33203125" style="4" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.88671875" style="4"/>
+    <col min="7171" max="7171" width="1.33203125" style="4" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.88671875" style="4"/>
+    <col min="7427" max="7427" width="1.33203125" style="4" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.88671875" style="4"/>
+    <col min="7683" max="7683" width="1.33203125" style="4" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.88671875" style="4"/>
+    <col min="7939" max="7939" width="1.33203125" style="4" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.88671875" style="4"/>
+    <col min="8195" max="8195" width="1.33203125" style="4" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.88671875" style="4"/>
+    <col min="8451" max="8451" width="1.33203125" style="4" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.88671875" style="4"/>
+    <col min="8707" max="8707" width="1.33203125" style="4" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.88671875" style="4"/>
+    <col min="8963" max="8963" width="1.33203125" style="4" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.88671875" style="4"/>
+    <col min="9219" max="9219" width="1.33203125" style="4" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.88671875" style="4"/>
+    <col min="9475" max="9475" width="1.33203125" style="4" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.88671875" style="4"/>
+    <col min="9731" max="9731" width="1.33203125" style="4" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.88671875" style="4"/>
+    <col min="9987" max="9987" width="1.33203125" style="4" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.88671875" style="4"/>
+    <col min="10243" max="10243" width="1.33203125" style="4" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.88671875" style="4"/>
+    <col min="10499" max="10499" width="1.33203125" style="4" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.88671875" style="4"/>
+    <col min="10755" max="10755" width="1.33203125" style="4" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.88671875" style="4"/>
+    <col min="11011" max="11011" width="1.33203125" style="4" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.88671875" style="4"/>
+    <col min="11267" max="11267" width="1.33203125" style="4" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.88671875" style="4"/>
+    <col min="11523" max="11523" width="1.33203125" style="4" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.88671875" style="4"/>
+    <col min="11779" max="11779" width="1.33203125" style="4" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.88671875" style="4"/>
+    <col min="12035" max="12035" width="1.33203125" style="4" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.88671875" style="4"/>
+    <col min="12291" max="12291" width="1.33203125" style="4" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.88671875" style="4"/>
+    <col min="12547" max="12547" width="1.33203125" style="4" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.88671875" style="4"/>
+    <col min="12803" max="12803" width="1.33203125" style="4" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.88671875" style="4"/>
+    <col min="13059" max="13059" width="1.33203125" style="4" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.88671875" style="4"/>
+    <col min="13315" max="13315" width="1.33203125" style="4" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.88671875" style="4"/>
+    <col min="13571" max="13571" width="1.33203125" style="4" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.88671875" style="4"/>
+    <col min="13827" max="13827" width="1.33203125" style="4" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.88671875" style="4"/>
+    <col min="14083" max="14083" width="1.33203125" style="4" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.88671875" style="4"/>
+    <col min="14339" max="14339" width="1.33203125" style="4" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.88671875" style="4"/>
+    <col min="14595" max="14595" width="1.33203125" style="4" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.88671875" style="4"/>
+    <col min="14851" max="14851" width="1.33203125" style="4" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.88671875" style="4"/>
+    <col min="15107" max="15107" width="1.33203125" style="4" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.88671875" style="4"/>
+    <col min="15363" max="15363" width="1.33203125" style="4" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.88671875" style="4"/>
+    <col min="15619" max="15619" width="1.33203125" style="4" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.88671875" style="4"/>
+    <col min="15875" max="15875" width="1.33203125" style="4" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.88671875" style="4"/>
+    <col min="16131" max="16131" width="1.33203125" style="4" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="9"/>
+      <c r="C5" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="39" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="9"/>
+      <c r="C6" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="26"/>
+    </row>
+    <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9"/>
+      <c r="C7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="14"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="23"/>
+    </row>
+    <row r="18" spans="15:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+    </row>
+    <row r="19" spans="15:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:S19"/>
   <sheetViews>
@@ -6135,7 +7228,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
@@ -6157,19 +7250,19 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
@@ -6183,19 +7276,19 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>22</v>
@@ -6209,19 +7302,19 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>22</v>
@@ -6235,13 +7328,13 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="6" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>46</v>
@@ -6259,7 +7352,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -6285,7 +7378,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -6297,17 +7390,17 @@
         <v>75</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -6350,7 +7443,7 @@
         <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>24</v>
@@ -6463,31 +7556,31 @@
     <row r="17" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9"/>
       <c r="C17" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>131</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="M17" s="25" t="s">
         <v>192</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6524,11 +7617,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:M14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7264,13 +8357,13 @@
         <v>27</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>131</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>129</v>
@@ -7290,13 +8383,13 @@
         <v>137</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>59</v>
@@ -7320,19 +8413,19 @@
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -7344,19 +8437,19 @@
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -7368,19 +8461,19 @@
     <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -7419,20 +8512,20 @@
         <v>65</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -7451,7 +8544,7 @@
         <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>24</v>
@@ -7537,7 +8630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:F20"/>
   <sheetViews>
@@ -7731,7 +8824,7 @@
     </row>
     <row r="15" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>

--- a/Community 테이블 명세 양식.xlsx
+++ b/Community 테이블 명세 양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Works\workspace\CommunityWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DF7660-EC49-445F-BE95-0B38243D6315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5963A04-AB7D-48D3-B81B-CC086894C9E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="유저 테이블" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="229">
   <si>
     <t>테이블 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -326,10 +326,6 @@
   </si>
   <si>
     <t>VARCHAR(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(256)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -914,6 +910,26 @@
   </si>
   <si>
     <t>page_data_cnt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(260)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 순서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi_order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1411,6 +1427,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1446,9 +1465,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2438,23 +2454,23 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -2464,19 +2480,19 @@
     </row>
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -2489,21 +2505,21 @@
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -2513,21 +2529,21 @@
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -2537,21 +2553,21 @@
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -2561,21 +2577,21 @@
     <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -2585,16 +2601,16 @@
     <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>24</v>
@@ -2609,13 +2625,13 @@
     <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>73</v>
@@ -2631,16 +2647,16 @@
     <row r="11" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -2653,16 +2669,16 @@
     <row r="12" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -3418,23 +3434,23 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>23</v>
@@ -3446,51 +3462,51 @@
     </row>
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="M4" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3638,7 +3654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4344,26 +4360,26 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
@@ -4372,19 +4388,19 @@
     </row>
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>24</v>
@@ -4399,21 +4415,21 @@
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -4422,11 +4438,21 @@
     </row>
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="6"/>
@@ -4586,7 +4612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:M14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5291,16 +5317,16 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>22</v>
@@ -5310,7 +5336,7 @@
         <v>26</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -5319,48 +5345,48 @@
     </row>
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>28</v>
@@ -6217,16 +6243,16 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>20</v>
@@ -6245,16 +6271,16 @@
     </row>
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>20</v>
@@ -6263,31 +6289,31 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="M4" s="25" t="s">
         <v>222</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>24</v>
@@ -6297,30 +6323,30 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="39" t="s">
-        <v>210</v>
+      <c r="M5" s="27" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="7"/>
@@ -6330,13 +6356,13 @@
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>22</v>
@@ -6346,7 +6372,7 @@
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -7228,7 +7254,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
@@ -7250,19 +7276,19 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
@@ -7276,19 +7302,19 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>22</v>
@@ -7302,19 +7328,19 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>22</v>
@@ -7328,19 +7354,19 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>20</v>
@@ -7352,7 +7378,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -7378,7 +7404,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -7387,20 +7413,20 @@
         <v>12</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -7443,7 +7469,7 @@
         <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>24</v>
@@ -7458,7 +7484,7 @@
     <row r="13" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>16</v>
@@ -7485,13 +7511,13 @@
         <v>29</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
@@ -7510,7 +7536,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>34</v>
@@ -7556,31 +7582,31 @@
     <row r="17" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9"/>
       <c r="C17" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>172</v>
-      </c>
       <c r="F17" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="L17" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="M17" s="25" t="s">
         <v>191</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -8357,39 +8383,39 @@
         <v>27</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="M4" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>59</v>
@@ -8413,19 +8439,19 @@
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -8437,19 +8463,19 @@
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -8461,19 +8487,19 @@
     <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -8512,20 +8538,20 @@
         <v>65</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -8544,7 +8570,7 @@
         <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>24</v>
@@ -8814,57 +8840,57 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
+      <c r="B15" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Community 테이블 명세 양식.xlsx
+++ b/Community 테이블 명세 양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Works\workspace\CommunityWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5963A04-AB7D-48D3-B81B-CC086894C9E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4595EA-AFD7-4497-AC04-966F899160D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="유저 테이블" sheetId="7" r:id="rId1"/>
@@ -1748,7 +1748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3654,7 +3654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>

--- a/Community 테이블 명세 양식.xlsx
+++ b/Community 테이블 명세 양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Works\workspace\CommunityWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4595EA-AFD7-4497-AC04-966F899160D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A26541-7EB6-4424-8791-44816E0EFC3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="유저 테이블" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="232">
   <si>
     <t>테이블 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -780,11 +780,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>LEFT JOIN으로 게시판 이름 가져오기
-게시판이 삭제돼도 게시글에 영향을 미치지 않도록 외래키 설정하지 않음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LEFT JOIN으로 유저 아이디 가져오기
 작성자 계정이 삭제돼도 게시글에 영향을 미치지 않도록 외래키 설정하지 않음</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -930,6 +925,24 @@
   </si>
   <si>
     <t>BIGINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON DELETE CASCADE
+LEFT JOIN으로 게시판 이름 가져오기
+게시판이 삭제되면 게시글도 전부 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK_BI_BOARD_board_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_board_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(bi_id)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1748,7 +1761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4394,13 +4407,13 @@
         <v>52</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>142</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>24</v>
@@ -4415,21 +4428,21 @@
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -4439,16 +4452,16 @@
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>24</v>
@@ -5348,7 +5361,7 @@
         <v>79</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>145</v>
@@ -6243,7 +6256,7 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>124</v>
@@ -6252,7 +6265,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>20</v>
@@ -6271,16 +6284,16 @@
     </row>
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>20</v>
@@ -6289,7 +6302,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>141</v>
@@ -6298,22 +6311,22 @@
         <v>152</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>24</v>
@@ -6324,29 +6337,29 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="7"/>
@@ -6356,13 +6369,13 @@
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>22</v>
@@ -6372,7 +6385,7 @@
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -6517,7 +6530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7276,7 +7289,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -7302,7 +7315,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -7328,7 +7341,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -7354,13 +7367,13 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>46</v>
@@ -7374,11 +7387,17 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>231</v>
+      </c>
       <c r="M8" s="25" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -7404,7 +7423,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -7469,7 +7488,7 @@
         <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>24</v>
@@ -7517,7 +7536,7 @@
         <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
@@ -7603,7 +7622,7 @@
         <v>190</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M17" s="25" t="s">
         <v>191</v>
@@ -8570,7 +8589,7 @@
         <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>24</v>

--- a/Community 테이블 명세 양식.xlsx
+++ b/Community 테이블 명세 양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Works\workspace\CommunityWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A26541-7EB6-4424-8791-44816E0EFC3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9820AD1-F6E4-4BDF-9C1D-0FC77AD61591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>게시판테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MySQL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -943,6 +939,10 @@
   </si>
   <si>
     <t>(bi_id)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글테이블</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2441,7 +2441,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -2450,7 +2450,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -2467,23 +2467,23 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>89</v>
-      </c>
       <c r="F3" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -2493,19 +2493,19 @@
     </row>
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -2518,21 +2518,21 @@
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -2542,21 +2542,21 @@
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -2566,21 +2566,21 @@
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -2590,21 +2590,21 @@
     <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -2614,19 +2614,19 @@
     <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -2638,16 +2638,16 @@
     <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -2660,16 +2660,16 @@
     <row r="11" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -2682,16 +2682,16 @@
     <row r="12" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -3421,7 +3421,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -3430,7 +3430,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -3447,26 +3447,26 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="F3" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
@@ -3475,51 +3475,51 @@
     </row>
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="M4" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4347,7 +4347,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -4356,7 +4356,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -4373,26 +4373,26 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>139</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
@@ -4401,22 +4401,22 @@
     </row>
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>215</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -4428,21 +4428,21 @@
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -4452,19 +4452,19 @@
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -5304,7 +5304,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -5313,7 +5313,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -5330,26 +5330,26 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -5358,51 +5358,51 @@
     </row>
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -6230,7 +6230,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -6239,7 +6239,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -6256,26 +6256,26 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
@@ -6284,52 +6284,52 @@
     </row>
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="M4" s="25" t="s">
         <v>220</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>206</v>
-      </c>
       <c r="G5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -6337,29 +6337,29 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>202</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="7"/>
@@ -6369,23 +6369,23 @@
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -7210,7 +7210,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -7219,7 +7219,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -7236,26 +7236,26 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
@@ -7264,50 +7264,50 @@
     </row>
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -7315,25 +7315,25 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -7341,25 +7341,25 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -7367,55 +7367,55 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>231</v>
-      </c>
       <c r="M8" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -7423,29 +7423,29 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -7455,19 +7455,19 @@
     <row r="11" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -7479,19 +7479,19 @@
     <row r="12" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -7503,21 +7503,21 @@
     <row r="13" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -7527,16 +7527,16 @@
     <row r="14" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9"/>
       <c r="C14" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
@@ -7549,23 +7549,23 @@
     <row r="15" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9"/>
       <c r="C15" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -7575,23 +7575,23 @@
     <row r="16" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
       <c r="C16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="F16" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -7601,31 +7601,31 @@
     <row r="17" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9"/>
       <c r="C17" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="F17" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="L17" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="M17" s="25" t="s">
         <v>190</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -8345,7 +8345,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -8354,7 +8354,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -8371,26 +8371,26 @@
     </row>
     <row r="3" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -8399,54 +8399,54 @@
     </row>
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>136</v>
-      </c>
       <c r="M4" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -8458,19 +8458,19 @@
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -8482,19 +8482,19 @@
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -8506,19 +8506,19 @@
     <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -8530,19 +8530,19 @@
     <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -8554,23 +8554,23 @@
     <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -8580,19 +8580,19 @@
     <row r="11" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -8604,23 +8604,23 @@
     <row r="12" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -8630,23 +8630,23 @@
     <row r="13" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -8692,27 +8692,27 @@
   <sheetData>
     <row r="2" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="15">
         <v>1</v>
@@ -8726,7 +8726,7 @@
     </row>
     <row r="4" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="15">
@@ -8742,7 +8742,7 @@
     <row r="5" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="15">
         <v>2</v>
@@ -8770,7 +8770,7 @@
     <row r="7" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="15">
         <v>3</v>
@@ -8798,7 +8798,7 @@
     <row r="9" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="15">
         <v>4</v>
@@ -8826,7 +8826,7 @@
     <row r="11" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="15">
         <v>5</v>
@@ -8860,7 +8860,7 @@
     </row>
     <row r="14" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
@@ -8869,7 +8869,7 @@
     </row>
     <row r="15" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
